--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
@@ -912,10 +912,10 @@
         <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -933,13 +933,13 @@
         <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -948,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA4" t="n">
         <v>5.5</v>
@@ -966,10 +966,10 @@
         <v>8</v>
       </c>
       <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.11</v>
@@ -1037,7 +1037,7 @@
         <v>2.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
         <v>1.57</v>
@@ -1046,25 +1046,25 @@
         <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
@@ -1073,10 +1073,10 @@
         <v>6.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
         <v>81</v>
@@ -1085,22 +1085,22 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
         <v>13</v>
       </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1144,19 +1144,19 @@
         <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1183,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1272,16 +1272,16 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1403,7 +1403,7 @@
         <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
         <v>1.5</v>
@@ -1510,16 +1510,16 @@
         <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N9" t="n">
         <v>2.4</v>
@@ -1632,16 +1632,16 @@
         <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N10" t="n">
         <v>2.7</v>
@@ -1754,13 +1754,13 @@
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M11" t="n">
         <v>2.2</v>
@@ -1991,70 +1991,70 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="N14" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="O14" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="T14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
-        <v>8.25</v>
+        <v>6.4</v>
       </c>
       <c r="V14" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="W14" t="n">
-        <v>18.5</v>
+        <v>11.75</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>150</v>
@@ -2063,22 +2063,22 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.7</v>
+        <v>10.75</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2235,19 +2235,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2256,10 +2256,10 @@
         <v>2.75</v>
       </c>
       <c r="N16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
         <v>1.5</v>
@@ -2268,10 +2268,10 @@
         <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
         <v>9</v>
@@ -2301,16 +2301,16 @@
         <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG16" t="n">
         <v>9.5</v>
@@ -2357,19 +2357,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
         <v>1.25</v>
@@ -2414,7 +2414,7 @@
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>8.5</v>
@@ -2432,7 +2432,7 @@
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -2441,7 +2441,7 @@
         <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
         <v>51</v>
@@ -2686,7 +2686,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MLcfTUv1</t>
+          <t>AsvkkC1K</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2706,105 +2706,109 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Real Cundinamarca</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>2.95</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R20" t="n">
-        <v>2.37</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="T20" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="U20" t="n">
-        <v>5.8</v>
+        <v>10.25</v>
       </c>
       <c r="V20" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W20" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG20" t="n">
         <v>11.25</v>
       </c>
-      <c r="AF20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>22</v>
-      </c>
       <c r="AH20" t="n">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AJ20" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AsvkkC1K</t>
+          <t>MLcfTUv1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2814,7 +2818,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2824,29 +2828,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Real Cundinamarca</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.35</v>
+        <v>1.52</v>
       </c>
       <c r="H21" t="n">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1.45</v>
       </c>
@@ -2863,64 +2863,64 @@
         <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="S21" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="U21" t="n">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="V21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W21" t="n">
         <v>9.75</v>
       </c>
-      <c r="W21" t="n">
-        <v>24</v>
-      </c>
       <c r="X21" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.4</v>
+        <v>11.75</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>37</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.25</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AI21" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -3199,13 +3199,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3219,39 +3219,39 @@
         <v>1.5</v>
       </c>
       <c r="O24" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S24" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
       </c>
       <c r="U24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="V24" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X24" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="n">
         <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB24" t="n">
         <v>40</v>
@@ -3263,22 +3263,22 @@
         <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AG24" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25">
@@ -3313,27 +3313,27 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -3344,49 +3344,49 @@
         <v>1.98</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V25" t="n">
         <v>8.25</v>
       </c>
       <c r="W25" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
         <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD25" t="n">
         <v>400</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF25" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI25" t="n">
         <v>32</v>
@@ -3430,10 +3430,10 @@
         <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3456,10 +3456,10 @@
         <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T26" t="n">
         <v>6.8</v>
@@ -3480,13 +3480,13 @@
         <v>27</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
         <v>70</v>
@@ -3495,16 +3495,16 @@
         <v>600</v>
       </c>
       <c r="AE26" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
         <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI26" t="n">
         <v>37</v>
@@ -3545,13 +3545,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3566,34 +3566,34 @@
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O27" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U27" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X27" t="n">
         <v>15</v>
@@ -3605,34 +3605,34 @@
         <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD27" t="n">
         <v>201</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>41</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -3738,19 +3738,19 @@
         <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O29" t="n">
         <v>2</v>
@@ -3762,13 +3762,13 @@
         <v>3.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U29" t="n">
         <v>12</v>
@@ -3780,10 +3780,10 @@
         <v>23</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
         <v>12</v>
@@ -4163,7 +4163,9 @@
       <c r="AC32" t="n">
         <v>150</v>
       </c>
-      <c r="AD32" t="inlineStr"/>
+      <c r="AD32" t="n">
+        <v>101</v>
+      </c>
       <c r="AE32" t="n">
         <v>6.9</v>
       </c>
@@ -4215,31 +4217,31 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="I33" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K33" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M33" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
         <v>1.65</v>
@@ -4254,28 +4256,28 @@
         <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="U33" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="V33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W33" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="X33" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z33" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AB33" t="n">
         <v>17</v>
@@ -4287,19 +4289,19 @@
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AF33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG33" t="n">
         <v>10.75</v>
       </c>
-      <c r="AG33" t="n">
-        <v>10</v>
-      </c>
       <c r="AH33" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AI33" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
         <v>50</v>
@@ -4337,13 +4339,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H34" t="n">
         <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J34" t="n">
         <v>1.05</v>
@@ -4358,10 +4360,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4376,7 +4378,7 @@
         <v>1.83</v>
       </c>
       <c r="T34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U34" t="n">
         <v>7.5</v>
@@ -4459,13 +4461,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H35" t="n">
         <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -4486,28 +4488,28 @@
         <v>2.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V35" t="n">
         <v>8.5</v>
       </c>
       <c r="W35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X35" t="n">
         <v>12</v>
@@ -4531,22 +4533,22 @@
         <v>151</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="n">
         <v>29</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH35" t="n">
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -4901,13 +4903,13 @@
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
         <v>1.44</v>
@@ -4922,10 +4924,10 @@
         <v>1.53</v>
       </c>
       <c r="P40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
         <v>2.05</v>
@@ -4937,7 +4939,7 @@
         <v>6.5</v>
       </c>
       <c r="U40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V40" t="n">
         <v>11</v>
@@ -5017,13 +5019,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J41" t="n">
         <v>1.07</v>
@@ -5032,16 +5034,16 @@
         <v>9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N41" t="n">
         <v>2.05</v>
       </c>
       <c r="O41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5050,16 +5052,16 @@
         <v>2.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S41" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T41" t="n">
         <v>6</v>
       </c>
       <c r="U41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V41" t="n">
         <v>8.5</v>
@@ -5068,7 +5070,7 @@
         <v>11</v>
       </c>
       <c r="X41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
         <v>29</v>
@@ -5077,7 +5079,7 @@
         <v>9</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
         <v>19</v>
@@ -5086,10 +5088,10 @@
         <v>67</v>
       </c>
       <c r="AD41" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF41" t="n">
         <v>29</v>
@@ -5101,7 +5103,7 @@
         <v>67</v>
       </c>
       <c r="AI41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ41" t="n">
         <v>51</v>
@@ -5505,27 +5507,27 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="N45" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="O45" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -5536,52 +5538,52 @@
         <v>2.02</v>
       </c>
       <c r="T45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U45" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W45" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X45" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y45" t="n">
         <v>25</v>
       </c>
       <c r="Z45" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AB45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
         <v>55</v>
       </c>
       <c r="AD45" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH45" t="n">
         <v>35</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ45" t="n">
         <v>30</v>
@@ -5733,13 +5735,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J47" t="n">
         <v>1.03</v>
@@ -5760,10 +5762,10 @@
         <v>2.4</v>
       </c>
       <c r="P47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R47" t="n">
         <v>1.44</v>
@@ -5772,16 +5774,16 @@
         <v>2.63</v>
       </c>
       <c r="T47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U47" t="n">
         <v>15</v>
       </c>
       <c r="V47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X47" t="n">
         <v>17</v>
@@ -5802,10 +5804,10 @@
         <v>29</v>
       </c>
       <c r="AD47" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF47" t="n">
         <v>17</v>
@@ -5820,7 +5822,7 @@
         <v>19</v>
       </c>
       <c r="AJ47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -5986,10 +5988,10 @@
         <v>2.88</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L49" t="n">
         <v>1.14</v>
@@ -6099,19 +6101,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J50" t="n">
         <v>1.02</v>
       </c>
       <c r="K50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L50" t="n">
         <v>1.11</v>
@@ -6144,13 +6146,13 @@
         <v>17</v>
       </c>
       <c r="V50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
         <v>19</v>
@@ -6174,13 +6176,13 @@
         <v>17</v>
       </c>
       <c r="AF50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI50" t="n">
         <v>19</v>
@@ -6221,22 +6223,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
         <v>4.5</v>
       </c>
       <c r="I51" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J51" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L51" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M51" t="n">
         <v>6</v>
@@ -6248,10 +6250,10 @@
         <v>2.7</v>
       </c>
       <c r="P51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
         <v>1.53</v>
@@ -6263,7 +6265,7 @@
         <v>21</v>
       </c>
       <c r="U51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V51" t="n">
         <v>17</v>
@@ -6287,16 +6289,16 @@
         <v>13</v>
       </c>
       <c r="AC51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD51" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE51" t="n">
         <v>11</v>
       </c>
       <c r="AF51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG51" t="n">
         <v>8.5</v>
@@ -6343,37 +6345,37 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I52" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J52" t="n">
         <v>1.02</v>
       </c>
       <c r="K52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L52" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O52" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="P52" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R52" t="n">
         <v>1.5</v>
@@ -6388,7 +6390,7 @@
         <v>21</v>
       </c>
       <c r="V52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W52" t="n">
         <v>41</v>
@@ -6403,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="AA52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB52" t="n">
         <v>12</v>
@@ -6424,13 +6426,13 @@
         <v>9</v>
       </c>
       <c r="AH52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>19</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -6474,13 +6476,13 @@
         <v>1.95</v>
       </c>
       <c r="J53" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K53" t="n">
         <v>15</v>
       </c>
       <c r="L53" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M53" t="n">
         <v>4.33</v>
@@ -6596,13 +6598,13 @@
         <v>1.95</v>
       </c>
       <c r="J54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K54" t="n">
         <v>13</v>
       </c>
       <c r="L54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M54" t="n">
         <v>3.75</v>
@@ -6709,37 +6711,37 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H55" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I55" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J55" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L55" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N55" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P55" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R55" t="n">
         <v>1.57</v>
@@ -6751,10 +6753,10 @@
         <v>11</v>
       </c>
       <c r="U55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W55" t="n">
         <v>26</v>
@@ -6766,10 +6768,10 @@
         <v>23</v>
       </c>
       <c r="Z55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB55" t="n">
         <v>13</v>
@@ -6778,7 +6780,7 @@
         <v>41</v>
       </c>
       <c r="AD55" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE55" t="n">
         <v>11</v>
@@ -6790,10 +6792,10 @@
         <v>9.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ55" t="n">
         <v>23</v>
@@ -6840,13 +6842,13 @@
         <v>1.9</v>
       </c>
       <c r="J56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L56" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
@@ -6962,22 +6964,22 @@
         <v>2.2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K57" t="n">
         <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P57" t="n">
         <v>1.33</v>
@@ -7096,10 +7098,10 @@
         <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O58" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7218,10 +7220,10 @@
         <v>3.4</v>
       </c>
       <c r="N59" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P59" t="n">
         <v>1.4</v>
@@ -7446,10 +7448,10 @@
         <v>1.33</v>
       </c>
       <c r="H62" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J62" t="n">
         <v>1.02</v>
@@ -7470,28 +7472,28 @@
         <v>2.7</v>
       </c>
       <c r="P62" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S62" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
       </c>
       <c r="U62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V62" t="n">
         <v>9</v>
       </c>
       <c r="W62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X62" t="n">
         <v>11</v>
@@ -7506,7 +7508,7 @@
         <v>9.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC62" t="n">
         <v>41</v>
@@ -7586,10 +7588,10 @@
         <v>5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O63" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P63" t="n">
         <v>1.29</v>
@@ -7696,13 +7698,13 @@
         <v>3.25</v>
       </c>
       <c r="J64" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K64" t="n">
         <v>13</v>
       </c>
       <c r="L64" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -7809,31 +7811,31 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H65" t="n">
         <v>3.5</v>
       </c>
       <c r="I65" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J65" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K65" t="n">
         <v>11</v>
       </c>
       <c r="L65" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M65" t="n">
         <v>3.75</v>
       </c>
       <c r="N65" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O65" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P65" t="n">
         <v>1.36</v>
@@ -7851,7 +7853,7 @@
         <v>8</v>
       </c>
       <c r="U65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V65" t="n">
         <v>8.5</v>
@@ -7884,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="AF65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG65" t="n">
         <v>13</v>
@@ -7940,22 +7942,22 @@
         <v>4.75</v>
       </c>
       <c r="J66" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K66" t="n">
         <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M66" t="n">
         <v>3.5</v>
       </c>
       <c r="N66" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O66" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P66" t="n">
         <v>1.4</v>
@@ -8062,13 +8064,13 @@
         <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L67" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
@@ -8175,37 +8177,37 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H68" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J68" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K68" t="n">
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M68" t="n">
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O68" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P68" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
         <v>1.8</v>
@@ -8244,7 +8246,7 @@
         <v>51</v>
       </c>
       <c r="AD68" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE68" t="n">
         <v>12</v>
@@ -8306,13 +8308,13 @@
         <v>3.2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K69" t="n">
         <v>9</v>
       </c>
       <c r="L69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M69" t="n">
         <v>3.25</v>
@@ -8615,19 +8617,19 @@
         <v>1.08</v>
       </c>
       <c r="K72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L72" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M72" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N72" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O72" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P72" t="n">
         <v>1.5</v>
@@ -8786,36 +8788,88 @@
           <t>Al Taee</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.31</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.29</v>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T74" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="U74" t="n">
+        <v>13</v>
+      </c>
+      <c r="V74" t="n">
+        <v>8</v>
+      </c>
+      <c r="W74" t="n">
+        <v>24</v>
+      </c>
+      <c r="X74" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8848,36 +8902,92 @@
           <t>Al Batin</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="inlineStr"/>
-      <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T75" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U75" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V75" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="W75" t="n">
+        <v>13</v>
+      </c>
+      <c r="X75" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9287,7 +9397,7 @@
         <v>4.75</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J81" t="n">
         <v>1.05</v>
@@ -9525,22 +9635,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H83" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I83" t="n">
         <v>3.4</v>
       </c>
       <c r="J83" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
@@ -9573,7 +9683,7 @@
         <v>9</v>
       </c>
       <c r="W83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X83" t="n">
         <v>17</v>
@@ -9585,7 +9695,7 @@
         <v>9</v>
       </c>
       <c r="AA83" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB83" t="n">
         <v>17</v>
@@ -9647,25 +9757,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H84" t="n">
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="J84" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K84" t="n">
         <v>13</v>
       </c>
       <c r="L84" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M84" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N84" t="n">
         <v>1.7</v>
@@ -9674,10 +9784,10 @@
         <v>2.1</v>
       </c>
       <c r="P84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R84" t="n">
         <v>1.62</v>
@@ -9686,22 +9796,22 @@
         <v>2.2</v>
       </c>
       <c r="T84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W84" t="n">
+        <v>41</v>
+      </c>
+      <c r="X84" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y84" t="n">
         <v>34</v>
-      </c>
-      <c r="X84" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>29</v>
       </c>
       <c r="Z84" t="n">
         <v>13</v>
@@ -9722,19 +9832,19 @@
         <v>9</v>
       </c>
       <c r="AF84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI84" t="n">
         <v>15</v>
       </c>
       <c r="AJ84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -9778,22 +9888,22 @@
         <v>3.2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K85" t="n">
         <v>10</v>
       </c>
       <c r="L85" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M85" t="n">
         <v>3.25</v>
       </c>
       <c r="N85" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O85" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>
@@ -9900,16 +10010,16 @@
         <v>3.6</v>
       </c>
       <c r="J86" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K86" t="n">
         <v>6.5</v>
       </c>
       <c r="L86" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M86" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N86" t="n">
         <v>2.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -2715,13 +2715,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
@@ -2733,7 +2733,7 @@
         <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="N20" t="n">
         <v>2.27</v>
@@ -2787,7 +2787,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF20" t="n">
         <v>13.5</v>
@@ -2796,7 +2796,7 @@
         <v>11.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI20" t="n">
         <v>30</v>
@@ -2840,7 +2840,7 @@
         <v>1.52</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
         <v>6.5</v>
@@ -2848,10 +2848,10 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="N21" t="n">
         <v>2.32</v>
@@ -2866,10 +2866,10 @@
         <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T21" t="n">
         <v>4.6</v>
@@ -2884,13 +2884,13 @@
         <v>9.75</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="n">
         <v>50</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA21" t="n">
         <v>7.6</v>
@@ -3480,13 +3480,13 @@
         <v>27</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
         <v>6.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
         <v>70</v>
@@ -3498,7 +3498,7 @@
         <v>11.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
         <v>13.5</v>
@@ -4095,19 +4095,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="H32" t="n">
         <v>2.42</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
         <v>1.19</v>
       </c>
       <c r="K32" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.72</v>
@@ -4119,13 +4119,13 @@
         <v>3.15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R32" t="n">
         <v>2.32</v>
@@ -4134,25 +4134,25 @@
         <v>1.55</v>
       </c>
       <c r="T32" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="U32" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="V32" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W32" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y32" t="n">
         <v>55</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AA32" t="n">
         <v>5.2</v>
@@ -4167,22 +4167,22 @@
         <v>101</v>
       </c>
       <c r="AE32" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AF32" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -4769,13 +4769,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -4786,16 +4786,16 @@
         <v>3.05</v>
       </c>
       <c r="N38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
         <v>1.65</v>
       </c>
       <c r="P38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R38" t="n">
         <v>1.82</v>
@@ -4804,25 +4804,25 @@
         <v>1.89</v>
       </c>
       <c r="T38" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="U38" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="V38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X38" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA38" t="n">
         <v>5.3</v>
@@ -4837,22 +4837,22 @@
         <v>400</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AH38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI38" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J40" t="n">
         <v>1.1</v>
@@ -5048,16 +5048,16 @@
         <v>1.7</v>
       </c>
       <c r="T40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V40" t="n">
         <v>11</v>
       </c>
       <c r="W40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X40" t="n">
         <v>26</v>
@@ -5081,7 +5081,7 @@
         <v>501</v>
       </c>
       <c r="AE40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF40" t="n">
         <v>12</v>
@@ -5090,7 +5090,7 @@
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI40" t="n">
         <v>26</v>
@@ -5253,46 +5253,46 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H42" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K42" t="n">
+        <v>10</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q42" t="n">
         <v>3.8</v>
       </c>
-      <c r="J42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3.95</v>
-      </c>
       <c r="R42" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S42" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="T42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U42" t="n">
         <v>12.5</v>
@@ -5301,19 +5301,19 @@
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="X42" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z42" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB42" t="n">
         <v>12</v>
@@ -5325,22 +5325,22 @@
         <v>150</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF42" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AJ42" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -5758,16 +5758,16 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S46" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T46" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U46" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="V46" t="n">
         <v>8.75</v>
@@ -5779,16 +5779,16 @@
         <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z46" t="n">
         <v>11.25</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC46" t="n">
         <v>45</v>
@@ -5797,10 +5797,10 @@
         <v>300</v>
       </c>
       <c r="AE46" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG46" t="n">
         <v>10.5</v>
@@ -5812,7 +5812,7 @@
         <v>24</v>
       </c>
       <c r="AJ46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
@@ -5969,13 +5969,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J48" t="n">
         <v>1.03</v>
@@ -5996,10 +5996,10 @@
         <v>2.4</v>
       </c>
       <c r="P48" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R48" t="n">
         <v>1.44</v>
@@ -6017,7 +6017,7 @@
         <v>10</v>
       </c>
       <c r="W48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X48" t="n">
         <v>17</v>
@@ -6047,10 +6047,10 @@
         <v>17</v>
       </c>
       <c r="AG48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI48" t="n">
         <v>19</v>
@@ -6225,19 +6225,19 @@
         <v>1.02</v>
       </c>
       <c r="K50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L50" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N50" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O50" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P50" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -3566,10 +3566,10 @@
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P27" t="n">
         <v>1.36</v>
@@ -3666,36 +3666,96 @@
           <t>Taborsko</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>10</v>
+      </c>
+      <c r="W28" t="n">
+        <v>21</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4095,19 +4155,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H32" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="J32" t="n">
         <v>1.19</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="L32" t="n">
         <v>1.72</v>
@@ -4116,13 +4176,13 @@
         <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q32" t="n">
         <v>2.02</v>
@@ -4131,19 +4191,19 @@
         <v>2.32</v>
       </c>
       <c r="S32" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T32" t="n">
         <v>5</v>
       </c>
       <c r="U32" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V32" t="n">
         <v>10.25</v>
       </c>
       <c r="W32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X32" t="n">
         <v>28</v>
@@ -4152,7 +4212,7 @@
         <v>55</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AA32" t="n">
         <v>5.2</v>
@@ -4167,7 +4227,7 @@
         <v>101</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
@@ -4651,90 +4711,90 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>6.3</v>
+        <v>4.45</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="N37" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P37" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R37" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="S37" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T37" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="U37" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="V37" t="n">
         <v>7.1</v>
       </c>
       <c r="W37" t="n">
-        <v>8.25</v>
+        <v>11.25</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
         <v>26</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB37" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD37" t="n">
         <v>101</v>
       </c>
       <c r="AE37" t="n">
-        <v>11.75</v>
+        <v>8.75</v>
       </c>
       <c r="AF37" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AG37" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AJ37" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -4769,13 +4829,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -4786,73 +4846,73 @@
         <v>3.05</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O38" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P38" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="R38" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="S38" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="T38" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="V38" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="W38" t="n">
+        <v>32</v>
+      </c>
+      <c r="X38" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>24</v>
-      </c>
-      <c r="X38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -5625,21 +5685,21 @@
         <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="n">
         <v>3.25</v>
       </c>
       <c r="N45" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O45" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -5671,7 +5731,7 @@
         <v>11.25</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB45" t="n">
         <v>13</v>
@@ -7088,10 +7148,10 @@
         <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O57" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P57" t="n">
         <v>1.33</v>
@@ -8604,10 +8664,10 @@
         <v>2.9</v>
       </c>
       <c r="J71" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L71" t="n">
         <v>1.36</v>
@@ -9512,13 +9572,13 @@
         <v>11</v>
       </c>
       <c r="J81" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K81" t="n">
         <v>11</v>
       </c>
       <c r="L81" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M81" t="n">
         <v>3.75</v>
@@ -9747,22 +9807,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>3.5</v>
       </c>
       <c r="I83" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J83" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K83" t="n">
         <v>10</v>
       </c>
       <c r="L83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
@@ -9786,10 +9846,10 @@
         <v>1.8</v>
       </c>
       <c r="T83" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U83" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V83" t="n">
         <v>9</v>
@@ -9798,7 +9858,7 @@
         <v>19</v>
       </c>
       <c r="X83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y83" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -1022,16 +1022,16 @@
         <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N5" t="n">
         <v>2.6</v>
@@ -1138,16 +1138,16 @@
         <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
@@ -1168,22 +1168,22 @@
         <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V6" t="n">
         <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1207,7 +1207,7 @@
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1391,7 +1391,7 @@
         <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>
@@ -1754,10 +1754,10 @@
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.62</v>
@@ -1802,7 +1802,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
@@ -1811,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD11" t="n">
         <v>101</v>
@@ -3324,7 +3324,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
         <v>3.25</v>
@@ -4420,10 +4420,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O34" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4711,24 +4711,24 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I37" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="N37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O37" t="n">
         <v>1.57</v>
@@ -4740,55 +4740,55 @@
         <v>2.35</v>
       </c>
       <c r="R37" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="S37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U37" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="V37" t="n">
         <v>7.1</v>
       </c>
       <c r="W37" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="X37" t="n">
         <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB37" t="n">
         <v>14.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="n">
         <v>101</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF37" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG37" t="n">
         <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI37" t="n">
         <v>37</v>
@@ -4829,21 +4829,21 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M38" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
         <v>2.02</v>
@@ -4855,19 +4855,19 @@
         <v>1.39</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R38" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S38" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T38" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V38" t="n">
         <v>9.25</v>
@@ -4897,10 +4897,10 @@
         <v>350</v>
       </c>
       <c r="AE38" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AF38" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG38" t="n">
         <v>7.6</v>
@@ -5799,68 +5799,68 @@
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="N46" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O46" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S46" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="T46" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U46" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V46" t="n">
         <v>8.75</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z46" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB46" t="n">
         <v>12</v>
       </c>
       <c r="AC46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD46" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF46" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG46" t="n">
         <v>10.5</v>
@@ -5872,7 +5872,7 @@
         <v>24</v>
       </c>
       <c r="AJ46" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -6904,10 +6904,10 @@
         <v>4.5</v>
       </c>
       <c r="N55" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O55" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P55" t="n">
         <v>1.29</v>
@@ -6916,13 +6916,13 @@
         <v>3.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U55" t="n">
         <v>15</v>
@@ -7148,10 +7148,10 @@
         <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O57" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P57" t="n">
         <v>1.33</v>
@@ -7497,31 +7497,81 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T60" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U60" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="W60" t="n">
+        <v>17</v>
+      </c>
+      <c r="X60" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8126,10 +8176,10 @@
         <v>3.5</v>
       </c>
       <c r="N66" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O66" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P66" t="n">
         <v>1.4</v>
@@ -8227,19 +8277,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J67" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L67" t="n">
         <v>1.36</v>
@@ -8248,10 +8298,10 @@
         <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O67" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P67" t="n">
         <v>1.44</v>
@@ -8269,19 +8319,19 @@
         <v>6.5</v>
       </c>
       <c r="U67" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V67" t="n">
         <v>9</v>
       </c>
       <c r="W67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z67" t="n">
         <v>8</v>
@@ -8370,10 +8420,10 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O68" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8592,36 +8642,96 @@
           <t>Al Markhiya</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
-      <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
-      <c r="AG70" t="inlineStr"/>
-      <c r="AH70" t="inlineStr"/>
-      <c r="AI70" t="inlineStr"/>
-      <c r="AJ70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K70" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T70" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U70" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V70" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W70" t="n">
+        <v>19</v>
+      </c>
+      <c r="X70" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8898,36 +9008,88 @@
           <t>Ohod</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.93</v>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T73" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U73" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V73" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8961,86 +9123,86 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="H74" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M74" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="N74" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="O74" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S74" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="T74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="U74" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="V74" t="n">
-        <v>9.75</v>
+        <v>11.25</v>
       </c>
       <c r="W74" t="n">
+        <v>45</v>
+      </c>
+      <c r="X74" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y74" t="n">
         <v>30</v>
       </c>
-      <c r="X74" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y74" t="n">
+      <c r="Z74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>22</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -9075,21 +9237,21 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="H75" t="n">
         <v>3.45</v>
       </c>
       <c r="I75" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M75" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="N75" t="n">
         <v>1.9</v>
@@ -9098,67 +9260,67 @@
         <v>1.72</v>
       </c>
       <c r="P75" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R75" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S75" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T75" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U75" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V75" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W75" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X75" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB75" t="n">
         <v>16</v>
       </c>
-      <c r="X75" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC75" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD75" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE75" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF75" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AG75" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH75" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI75" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -9192,36 +9354,96 @@
           <t>Jedinstvo U.</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr"/>
-      <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="inlineStr"/>
-      <c r="AJ76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K76" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T76" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U76" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V76" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W76" t="n">
+        <v>10</v>
+      </c>
+      <c r="X76" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9254,36 +9476,96 @@
           <t>Sp. Subotica</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T77" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X77" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9316,36 +9598,96 @@
           <t>Radnicki Nis</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K78" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T78" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U78" t="n">
+        <v>10</v>
+      </c>
+      <c r="V78" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W78" t="n">
+        <v>21</v>
+      </c>
+      <c r="X78" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9378,36 +9720,96 @@
           <t>Novi Pazar</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr"/>
-      <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K79" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U79" t="n">
+        <v>15</v>
+      </c>
+      <c r="V79" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W79" t="n">
+        <v>37</v>
+      </c>
+      <c r="X79" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9572,13 +9974,13 @@
         <v>11</v>
       </c>
       <c r="J81" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K81" t="n">
         <v>11</v>
       </c>
       <c r="L81" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M81" t="n">
         <v>3.75</v>
@@ -9816,13 +10218,13 @@
         <v>3.3</v>
       </c>
       <c r="J83" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K83" t="n">
         <v>10</v>
       </c>
       <c r="L83" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
@@ -10060,10 +10462,10 @@
         <v>3.1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L85" t="n">
         <v>1.33</v>
@@ -10072,10 +10474,10 @@
         <v>3.25</v>
       </c>
       <c r="N85" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O85" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -775,7 +775,7 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -823,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
@@ -853,7 +853,7 @@
         <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -933,22 +933,22 @@
         <v>7</v>
       </c>
       <c r="U4" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" t="n">
         <v>11</v>
       </c>
-      <c r="V4" t="n">
-        <v>10</v>
-      </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
         <v>5.5</v>
@@ -960,16 +960,16 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1034,10 +1034,10 @@
         <v>2.38</v>
       </c>
       <c r="N5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
         <v>1.57</v>
@@ -1150,16 +1150,16 @@
         <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.53</v>
@@ -1379,31 +1379,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
         <v>1.5</v>
@@ -1427,10 +1427,10 @@
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
@@ -1451,7 +1451,7 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>19</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
@@ -1866,36 +1866,92 @@
           <t>Neftci Baku</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.5</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>13</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W12" t="n">
+        <v>32</v>
+      </c>
+      <c r="X12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2113,10 +2169,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -2125,7 +2181,7 @@
         <v>1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.5</v>
@@ -2140,10 +2196,10 @@
         <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
         <v>2.1</v>
@@ -2170,7 +2226,7 @@
         <v>45</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA15" t="n">
         <v>6.1</v>
@@ -2191,7 +2247,7 @@
         <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH15" t="n">
         <v>37</v>
@@ -2244,10 +2300,10 @@
         <v>2.15</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2262,10 +2318,10 @@
         <v>1.62</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R16" t="n">
         <v>1.91</v>
@@ -2286,13 +2342,13 @@
         <v>41</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
@@ -2304,7 +2360,7 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AE16" t="n">
         <v>6.5</v>
@@ -2715,13 +2771,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
@@ -2772,22 +2828,22 @@
         <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF20" t="n">
         <v>13.5</v>
@@ -2796,7 +2852,7 @@
         <v>11.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="n">
         <v>30</v>
@@ -2837,66 +2893,66 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I21" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="S21" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="U21" t="n">
         <v>5.6</v>
       </c>
       <c r="V21" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X21" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC21" t="n">
         <v>250</v>
@@ -2905,22 +2961,22 @@
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI21" t="n">
         <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
@@ -3545,13 +3601,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3578,10 +3634,10 @@
         <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
         <v>7.5</v>
@@ -3605,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -3626,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI27" t="n">
         <v>34</v>
@@ -3667,19 +3723,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
@@ -3688,10 +3744,10 @@
         <v>2.5</v>
       </c>
       <c r="N28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
         <v>1.53</v>
@@ -3700,16 +3756,16 @@
         <v>2.38</v>
       </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T28" t="n">
         <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V28" t="n">
         <v>10</v>
@@ -3745,7 +3801,7 @@
         <v>15</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>41</v>
@@ -5560,79 +5616,79 @@
         <v>2.3</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
         <v>2.65</v>
       </c>
       <c r="J44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M44" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="N44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.4</v>
       </c>
-      <c r="O44" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.37</v>
-      </c>
       <c r="S44" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="U44" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V44" t="n">
         <v>9.5</v>
       </c>
       <c r="W44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC44" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD44" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AE44" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG44" t="n">
         <v>10.25</v>
@@ -5644,7 +5700,7 @@
         <v>18.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -6160,10 +6216,10 @@
         <v>2.75</v>
       </c>
       <c r="J49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L49" t="n">
         <v>1.14</v>
@@ -6285,7 +6341,7 @@
         <v>1.02</v>
       </c>
       <c r="K50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L50" t="n">
         <v>1.13</v>
@@ -6315,7 +6371,7 @@
         <v>15</v>
       </c>
       <c r="U50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V50" t="n">
         <v>10</v>
@@ -6336,10 +6392,10 @@
         <v>7.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD50" t="n">
         <v>67</v>
@@ -6357,7 +6413,7 @@
         <v>34</v>
       </c>
       <c r="AI50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ50" t="n">
         <v>21</v>
@@ -6398,7 +6454,7 @@
         <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I51" t="n">
         <v>1.57</v>
@@ -6428,10 +6484,10 @@
         <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T51" t="n">
         <v>21</v>
@@ -6449,13 +6505,13 @@
         <v>34</v>
       </c>
       <c r="Y51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z51" t="n">
         <v>21</v>
       </c>
       <c r="AA51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB51" t="n">
         <v>13</v>
@@ -6517,13 +6573,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
         <v>3.8</v>
       </c>
       <c r="I52" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J52" t="n">
         <v>1.02</v>
@@ -6556,10 +6612,10 @@
         <v>2.5</v>
       </c>
       <c r="T52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V52" t="n">
         <v>13</v>
@@ -6568,13 +6624,13 @@
         <v>41</v>
       </c>
       <c r="X52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y52" t="n">
         <v>26</v>
       </c>
       <c r="Z52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="n">
         <v>8</v>
@@ -6642,10 +6698,10 @@
         <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J53" t="n">
         <v>1.03</v>
@@ -6672,10 +6728,10 @@
         <v>3.4</v>
       </c>
       <c r="R53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T53" t="n">
         <v>12</v>
@@ -6761,13 +6817,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
         <v>1.04</v>
@@ -6821,7 +6877,7 @@
         <v>13</v>
       </c>
       <c r="AA54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB54" t="n">
         <v>15</v>
@@ -6886,7 +6942,7 @@
         <v>2.55</v>
       </c>
       <c r="H55" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
         <v>2.25</v>
@@ -7005,10 +7061,10 @@
         </is>
       </c>
       <c r="G56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3.4</v>
       </c>
       <c r="I56" t="n">
         <v>1.9</v>
@@ -7017,7 +7073,7 @@
         <v>1.04</v>
       </c>
       <c r="K56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L56" t="n">
         <v>1.22</v>
@@ -7127,13 +7183,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J57" t="n">
         <v>1.04</v>
@@ -7169,7 +7225,7 @@
         <v>11</v>
       </c>
       <c r="U57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V57" t="n">
         <v>11</v>
@@ -7187,10 +7243,10 @@
         <v>13</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC57" t="n">
         <v>41</v>
@@ -7202,13 +7258,13 @@
         <v>9.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG57" t="n">
         <v>9.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI57" t="n">
         <v>17</v>
@@ -7670,10 +7726,10 @@
         <v>1.33</v>
       </c>
       <c r="H62" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J62" t="n">
         <v>1.02</v>
@@ -7727,7 +7783,7 @@
         <v>19</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB62" t="n">
         <v>17</v>
@@ -7789,13 +7845,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J63" t="n">
         <v>1.03</v>
@@ -7837,10 +7893,10 @@
         <v>9</v>
       </c>
       <c r="W63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -7861,10 +7917,10 @@
         <v>101</v>
       </c>
       <c r="AE63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG63" t="n">
         <v>13</v>
@@ -7911,19 +7967,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H64" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J64" t="n">
         <v>1.04</v>
       </c>
       <c r="K64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L64" t="n">
         <v>1.22</v>
@@ -7938,19 +7994,19 @@
         <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R64" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U64" t="n">
         <v>11</v>
@@ -7959,7 +8015,7 @@
         <v>9</v>
       </c>
       <c r="W64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X64" t="n">
         <v>17</v>
@@ -7968,7 +8024,7 @@
         <v>23</v>
       </c>
       <c r="Z64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA64" t="n">
         <v>6.5</v>
@@ -7983,7 +8039,7 @@
         <v>151</v>
       </c>
       <c r="AE64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF64" t="n">
         <v>17</v>
@@ -7995,10 +8051,10 @@
         <v>34</v>
       </c>
       <c r="AI64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -8176,16 +8232,16 @@
         <v>3.5</v>
       </c>
       <c r="N66" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O66" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
         <v>1.83</v>
@@ -8301,7 +8357,7 @@
         <v>2.25</v>
       </c>
       <c r="O67" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P67" t="n">
         <v>1.44</v>
@@ -8420,10 +8476,10 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O68" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8545,7 +8601,7 @@
         <v>2.05</v>
       </c>
       <c r="O69" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P69" t="n">
         <v>1.44</v>
@@ -8679,7 +8735,7 @@
         <v>1.6</v>
       </c>
       <c r="S70" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T70" t="n">
         <v>8.75</v>
@@ -8789,7 +8845,7 @@
         <v>2.15</v>
       </c>
       <c r="O71" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P71" t="n">
         <v>1.44</v>
@@ -8911,7 +8967,7 @@
         <v>2.3</v>
       </c>
       <c r="O72" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P72" t="n">
         <v>1.5</v>
@@ -9034,7 +9090,7 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S73" t="n">
         <v>1.75</v>
@@ -9076,7 +9132,7 @@
         <v>17</v>
       </c>
       <c r="AF73" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG73" t="n">
         <v>21</v>
@@ -9123,13 +9179,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="H74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9148,61 +9204,61 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S74" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T74" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="U74" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="V74" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="W74" t="n">
+        <v>37</v>
+      </c>
+      <c r="X74" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC74" t="n">
         <v>45</v>
-      </c>
-      <c r="X74" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>50</v>
       </c>
       <c r="AD74" t="n">
         <v>300</v>
       </c>
       <c r="AE74" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG74" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH74" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI74" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ74" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -9358,43 +9414,43 @@
         <v>1.5</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I76" t="n">
         <v>5.6</v>
       </c>
       <c r="J76" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M76" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N76" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O76" t="n">
         <v>1.85</v>
       </c>
-      <c r="O76" t="n">
-        <v>1.87</v>
-      </c>
       <c r="P76" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q76" t="n">
         <v>2.75</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S76" t="n">
         <v>1.72</v>
       </c>
       <c r="T76" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U76" t="n">
         <v>6.6</v>
@@ -9412,37 +9468,37 @@
         <v>30</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB76" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC76" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD76" t="n">
         <v>900</v>
       </c>
       <c r="AE76" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF76" t="n">
         <v>35</v>
       </c>
       <c r="AG76" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH76" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI76" t="n">
         <v>65</v>
       </c>
       <c r="AJ76" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
@@ -9483,19 +9539,19 @@
         <v>3.35</v>
       </c>
       <c r="I77" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J77" t="n">
         <v>1.08</v>
       </c>
       <c r="K77" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L77" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M77" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="N77" t="n">
         <v>2.1</v>
@@ -9504,10 +9560,10 @@
         <v>1.65</v>
       </c>
       <c r="P77" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R77" t="n">
         <v>1.98</v>
@@ -9516,16 +9572,16 @@
         <v>1.75</v>
       </c>
       <c r="T77" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U77" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="V77" t="n">
         <v>8.5</v>
       </c>
       <c r="W77" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X77" t="n">
         <v>15.5</v>
@@ -9534,7 +9590,7 @@
         <v>32</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA77" t="n">
         <v>6.6</v>
@@ -9549,10 +9605,10 @@
         <v>900</v>
       </c>
       <c r="AE77" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG77" t="n">
         <v>15</v>
@@ -9599,79 +9655,79 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K78" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M78" t="n">
         <v>3.25</v>
       </c>
-      <c r="J78" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K78" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M78" t="n">
-        <v>3</v>
-      </c>
       <c r="N78" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S78" t="n">
         <v>2</v>
       </c>
-      <c r="O78" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P78" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.93</v>
-      </c>
       <c r="T78" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="U78" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V78" t="n">
         <v>8.75</v>
       </c>
       <c r="W78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y78" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z78" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD78" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE78" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF78" t="n">
         <v>17.5</v>
@@ -9683,10 +9739,10 @@
         <v>45</v>
       </c>
       <c r="AI78" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ78" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -9724,7 +9780,7 @@
         <v>2.92</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I79" t="n">
         <v>2.35</v>
@@ -9763,10 +9819,10 @@
         <v>8.5</v>
       </c>
       <c r="U79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V79" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W79" t="n">
         <v>37</v>
@@ -9775,13 +9831,13 @@
         <v>27</v>
       </c>
       <c r="Y79" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z79" t="n">
         <v>6.6</v>
       </c>
       <c r="AA79" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB79" t="n">
         <v>13.5</v>
@@ -9793,10 +9849,10 @@
         <v>500</v>
       </c>
       <c r="AE79" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF79" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG79" t="n">
         <v>9</v>
@@ -9971,7 +10027,7 @@
         <v>4.75</v>
       </c>
       <c r="I81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J81" t="n">
         <v>1.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -656,16 +656,16 @@
         <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N2" t="n">
         <v>2.2</v>
@@ -784,10 +784,10 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
         <v>1.73</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>1.13</v>
@@ -924,25 +924,25 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -954,22 +954,22 @@
         <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
         <v>451</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1391,7 +1391,7 @@
         <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1873,42 +1873,42 @@
         <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="N12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="P12" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="U12" t="n">
         <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W12" t="n">
         <v>32</v>
@@ -1920,22 +1920,22 @@
         <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AA12" t="n">
         <v>5.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
         <v>90</v>
       </c>
       <c r="AD12" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF12" t="n">
         <v>11.25</v>
@@ -1947,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
         <v>40</v>
@@ -1984,36 +1984,88 @@
           <t>Sloga Doboj</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.98</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2434,10 +2486,10 @@
         <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O17" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -3258,7 +3310,7 @@
         <v>1.13</v>
       </c>
       <c r="H24" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
         <v>24</v>
@@ -3286,10 +3338,10 @@
         <v>1.42</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="V24" t="n">
         <v>10.75</v>
@@ -3304,10 +3356,10 @@
         <v>45</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
         <v>40</v>
@@ -3319,10 +3371,10 @@
         <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF24" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AG24" t="n">
         <v>90</v>
@@ -3331,10 +3383,10 @@
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AJ24" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
@@ -3512,10 +3564,10 @@
         <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T26" t="n">
         <v>6.8</v>
@@ -3539,7 +3591,7 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB26" t="n">
         <v>15</v>
@@ -4333,19 +4385,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="I33" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="J33" t="n">
         <v>1.17</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="L33" t="n">
         <v>1.65</v>
@@ -4354,10 +4406,10 @@
         <v>2.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
         <v>1.65</v>
@@ -4372,16 +4424,16 @@
         <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="U33" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W33" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X33" t="n">
         <v>40</v>
@@ -4390,7 +4442,7 @@
         <v>60</v>
       </c>
       <c r="Z33" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AA33" t="n">
         <v>5</v>
@@ -4405,19 +4457,19 @@
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ33" t="n">
         <v>50</v>
@@ -4455,19 +4507,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -4494,7 +4546,7 @@
         <v>1.83</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U34" t="n">
         <v>7.5</v>
@@ -4503,16 +4555,16 @@
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X34" t="n">
         <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>7.5</v>
@@ -4524,7 +4576,7 @@
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
@@ -4533,10 +4585,10 @@
         <v>29</v>
       </c>
       <c r="AG34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
@@ -4767,90 +4819,90 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="N37" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="O37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P37" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R37" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S37" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="T37" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="U37" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="V37" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X37" t="n">
         <v>11.75</v>
       </c>
-      <c r="X37" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Y37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="n">
         <v>101</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>55</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -4885,7 +4937,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
@@ -4902,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P38" t="n">
         <v>1.39</v>
@@ -4920,7 +4972,7 @@
         <v>1.85</v>
       </c>
       <c r="T38" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U38" t="n">
         <v>13.5</v>
@@ -4935,16 +4987,16 @@
         <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z38" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA38" t="n">
         <v>5.2</v>
       </c>
       <c r="AB38" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC38" t="n">
         <v>50</v>
@@ -5256,10 +5308,10 @@
         <v>6.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
@@ -5491,13 +5543,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
@@ -5509,19 +5561,19 @@
         <v>1.19</v>
       </c>
       <c r="M43" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="N43" t="n">
         <v>1.57</v>
       </c>
       <c r="O43" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="P43" t="n">
         <v>1.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R43" t="n">
         <v>1.6</v>
@@ -5533,13 +5585,13 @@
         <v>9.5</v>
       </c>
       <c r="U43" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V43" t="n">
         <v>8.25</v>
       </c>
       <c r="W43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X43" t="n">
         <v>12.5</v>
@@ -5563,19 +5615,19 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ43" t="n">
         <v>32</v>
@@ -6329,19 +6381,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J50" t="n">
         <v>1.02</v>
       </c>
       <c r="K50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L50" t="n">
         <v>1.13</v>
@@ -6362,22 +6414,22 @@
         <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U50" t="n">
         <v>15</v>
       </c>
       <c r="V50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X50" t="n">
         <v>15</v>
@@ -6398,7 +6450,7 @@
         <v>26</v>
       </c>
       <c r="AD50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="n">
         <v>17</v>
@@ -6416,7 +6468,7 @@
         <v>21</v>
       </c>
       <c r="AJ50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -7073,7 +7125,7 @@
         <v>1.04</v>
       </c>
       <c r="K56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L56" t="n">
         <v>1.22</v>
@@ -7548,37 +7600,43 @@
           <t>Fernando de la Mora</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M60" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N60" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="O60" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P60" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="R60" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S60" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="T60" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="U60" t="n">
         <v>7.4</v>
@@ -7596,13 +7654,13 @@
         <v>35</v>
       </c>
       <c r="Z60" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA60" t="n">
         <v>5.2</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC60" t="n">
         <v>101</v>
@@ -7623,7 +7681,7 @@
         <v>35</v>
       </c>
       <c r="AI60" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ60" t="n">
         <v>45</v>
@@ -7792,7 +7850,7 @@
         <v>41</v>
       </c>
       <c r="AD62" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE62" t="n">
         <v>26</v>
@@ -7979,7 +8037,7 @@
         <v>1.04</v>
       </c>
       <c r="K64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L64" t="n">
         <v>1.22</v>
@@ -8333,19 +8391,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L67" t="n">
         <v>1.36</v>
@@ -8354,10 +8412,10 @@
         <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O67" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="P67" t="n">
         <v>1.44</v>
@@ -8375,7 +8433,7 @@
         <v>6.5</v>
       </c>
       <c r="U67" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V67" t="n">
         <v>9</v>
@@ -8384,10 +8442,10 @@
         <v>19</v>
       </c>
       <c r="X67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z67" t="n">
         <v>8</v>
@@ -8601,7 +8659,7 @@
         <v>2.05</v>
       </c>
       <c r="O69" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P69" t="n">
         <v>1.44</v>
@@ -8702,16 +8760,16 @@
         <v>1.98</v>
       </c>
       <c r="H70" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J70" t="n">
         <v>1.05</v>
       </c>
       <c r="K70" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L70" t="n">
         <v>1.24</v>
@@ -8726,52 +8784,52 @@
         <v>2</v>
       </c>
       <c r="P70" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="R70" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S70" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T70" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U70" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="V70" t="n">
         <v>8.25</v>
       </c>
       <c r="W70" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X70" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z70" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB70" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD70" t="n">
         <v>300</v>
       </c>
       <c r="AE70" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF70" t="n">
         <v>21</v>
@@ -8780,13 +8838,13 @@
         <v>11.75</v>
       </c>
       <c r="AH70" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI70" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>30</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -8830,10 +8888,10 @@
         <v>2.9</v>
       </c>
       <c r="J71" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L71" t="n">
         <v>1.36</v>
@@ -8842,10 +8900,10 @@
         <v>3</v>
       </c>
       <c r="N71" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O71" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P71" t="n">
         <v>1.44</v>
@@ -8967,7 +9025,7 @@
         <v>2.3</v>
       </c>
       <c r="O72" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P72" t="n">
         <v>1.5</v>
@@ -9068,10 +9126,10 @@
         <v>1.42</v>
       </c>
       <c r="H73" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I73" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -9090,61 +9148,61 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S73" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T73" t="n">
         <v>6.9</v>
       </c>
       <c r="U73" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="V73" t="n">
         <v>8.25</v>
       </c>
       <c r="W73" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X73" t="n">
         <v>11.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z73" t="n">
         <v>11.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC73" t="n">
         <v>90</v>
       </c>
       <c r="AD73" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE73" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF73" t="n">
         <v>45</v>
       </c>
       <c r="AG73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH73" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI73" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="74">
@@ -9179,13 +9237,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.95</v>
+        <v>2.57</v>
       </c>
       <c r="H74" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I74" t="n">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9210,28 +9268,28 @@
         <v>2.15</v>
       </c>
       <c r="T74" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="U74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V74" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="W74" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="X74" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z74" t="n">
         <v>12</v>
       </c>
       <c r="AA74" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB74" t="n">
         <v>12</v>
@@ -9243,22 +9301,22 @@
         <v>300</v>
       </c>
       <c r="AE74" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF74" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI74" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AJ74" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
@@ -9293,90 +9351,90 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>4.15</v>
+        <v>4.55</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M75" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="N75" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O75" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P75" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R75" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S75" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T75" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U75" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="V75" t="n">
         <v>8.25</v>
       </c>
       <c r="W75" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="X75" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y75" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z75" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AB75" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC75" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD75" t="n">
         <v>700</v>
       </c>
       <c r="AE75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF75" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH75" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ75" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
@@ -9414,7 +9472,7 @@
         <v>1.5</v>
       </c>
       <c r="H76" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I76" t="n">
         <v>5.6</v>
@@ -9423,37 +9481,37 @@
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="L76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M76" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N76" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P76" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="R76" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S76" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T76" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U76" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="V76" t="n">
         <v>8.25</v>
@@ -9462,16 +9520,16 @@
         <v>10</v>
       </c>
       <c r="X76" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y76" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA76" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB76" t="n">
         <v>20</v>
@@ -9486,7 +9544,7 @@
         <v>14</v>
       </c>
       <c r="AF76" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG76" t="n">
         <v>19</v>
@@ -9533,67 +9591,67 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="H77" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="J77" t="n">
         <v>1.08</v>
       </c>
       <c r="K77" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="L77" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="N77" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P77" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="R77" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T77" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U77" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="V77" t="n">
         <v>8.5</v>
       </c>
       <c r="W77" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X77" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y77" t="n">
         <v>32</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB77" t="n">
         <v>17.5</v>
@@ -9605,22 +9663,22 @@
         <v>900</v>
       </c>
       <c r="AE77" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF77" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG77" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI77" t="n">
         <v>45</v>
       </c>
       <c r="AJ77" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
@@ -9661,40 +9719,40 @@
         <v>3.25</v>
       </c>
       <c r="I78" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J78" t="n">
         <v>1.06</v>
       </c>
       <c r="K78" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L78" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M78" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="N78" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O78" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="P78" t="n">
         <v>1.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R78" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S78" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T78" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U78" t="n">
         <v>10.25</v>
@@ -9709,31 +9767,31 @@
         <v>17</v>
       </c>
       <c r="Y78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z78" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA78" t="n">
         <v>6.4</v>
       </c>
       <c r="AB78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC78" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD78" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE78" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF78" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG78" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH78" t="n">
         <v>45</v>
@@ -9777,7 +9835,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>3.05</v>
@@ -9789,19 +9847,19 @@
         <v>1.08</v>
       </c>
       <c r="K79" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L79" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M79" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="N79" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O79" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P79" t="n">
         <v>1.47</v>
@@ -9810,10 +9868,10 @@
         <v>2.5</v>
       </c>
       <c r="R79" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S79" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T79" t="n">
         <v>8.5</v>
@@ -9822,7 +9880,7 @@
         <v>14.5</v>
       </c>
       <c r="V79" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W79" t="n">
         <v>37</v>
@@ -9834,37 +9892,37 @@
         <v>37</v>
       </c>
       <c r="Z79" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA79" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB79" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC79" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE79" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AF79" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH79" t="n">
         <v>25</v>
       </c>
       <c r="AI79" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ79" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -10021,10 +10079,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H81" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I81" t="n">
         <v>12</v>
@@ -10036,22 +10094,22 @@
         <v>11</v>
       </c>
       <c r="L81" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M81" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N81" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R81" t="n">
         <v>2.25</v>
@@ -10066,7 +10124,7 @@
         <v>6</v>
       </c>
       <c r="V81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W81" t="n">
         <v>7.5</v>
@@ -10081,7 +10139,7 @@
         <v>11</v>
       </c>
       <c r="AA81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB81" t="n">
         <v>23</v>
@@ -10093,7 +10151,7 @@
         <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF81" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.13</v>
@@ -924,13 +924,13 @@
         <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
         <v>11</v>
@@ -939,10 +939,10 @@
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -954,7 +954,7 @@
         <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.08</v>
@@ -1412,10 +1412,10 @@
         <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1427,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
         <v>19</v>
@@ -1451,10 +1451,10 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
@@ -1754,10 +1754,10 @@
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>1.62</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>2.52</v>
@@ -1878,79 +1878,79 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="O12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T12" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="U12" t="n">
         <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W12" t="n">
         <v>32</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AA12" t="n">
         <v>5.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD12" t="n">
         <v>900</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AF12" t="n">
         <v>11.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -1988,10 +1988,10 @@
         <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1999,7 +1999,7 @@
         <v>1.22</v>
       </c>
       <c r="M13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N13" t="n">
         <v>1.65</v>
@@ -2010,34 +2010,34 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="S13" t="n">
         <v>1.47</v>
       </c>
       <c r="T13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U13" t="n">
         <v>5.3</v>
       </c>
       <c r="V13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W13" t="n">
         <v>6.6</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y13" t="n">
         <v>40</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
         <v>35</v>
@@ -2049,19 +2049,19 @@
         <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AI13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ13" t="n">
         <v>200</v>
@@ -2477,7 +2477,7 @@
         <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
         <v>1.25</v>
@@ -2486,10 +2486,10 @@
         <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2880,13 +2880,13 @@
         <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
         <v>100</v>
@@ -2895,7 +2895,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF20" t="n">
         <v>13.5</v>
@@ -3185,19 +3185,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H23" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3224,16 +3224,16 @@
         <v>1.73</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U23" t="n">
         <v>11</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
@@ -3257,16 +3257,16 @@
         <v>1250</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H24" t="n">
         <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3332,7 +3332,7 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="S24" t="n">
         <v>1.42</v>
@@ -3344,7 +3344,7 @@
         <v>5.4</v>
       </c>
       <c r="V24" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
         <v>5.8</v>
@@ -3356,13 +3356,13 @@
         <v>45</v>
       </c>
       <c r="Z24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
         <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="n">
         <v>250</v>
@@ -3371,10 +3371,10 @@
         <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AG24" t="n">
         <v>90</v>
@@ -3383,10 +3383,10 @@
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25">
@@ -3538,10 +3538,10 @@
         <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3564,22 +3564,22 @@
         <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S26" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="U26" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V26" t="n">
         <v>8.25</v>
       </c>
       <c r="W26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
         <v>14.5</v>
@@ -3588,34 +3588,34 @@
         <v>27</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="n">
         <v>600</v>
       </c>
       <c r="AE26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
         <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI26" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
         <v>45</v>
@@ -3659,22 +3659,22 @@
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
         <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M27" t="n">
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.95</v>
@@ -3692,10 +3692,10 @@
         <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V27" t="n">
         <v>8.5</v>
@@ -3707,19 +3707,19 @@
         <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z27" t="n">
         <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="n">
         <v>201</v>
@@ -3784,13 +3784,13 @@
         <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
         <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
         <v>2.5</v>
@@ -3906,22 +3906,22 @@
         <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O29" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -4028,22 +4028,22 @@
         <v>2.2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
         <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="n">
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O30" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4516,10 +4516,10 @@
         <v>5.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -4937,13 +4937,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -4951,19 +4951,19 @@
         <v>1.34</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O38" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P38" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R38" t="n">
         <v>1.85</v>
@@ -4972,31 +4972,31 @@
         <v>1.85</v>
       </c>
       <c r="T38" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="U38" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="V38" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA38" t="n">
         <v>5.2</v>
       </c>
       <c r="AB38" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
         <v>50</v>
@@ -5005,22 +5005,22 @@
         <v>350</v>
       </c>
       <c r="AE38" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AF38" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH38" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
         <v>15.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H39" t="n">
         <v>4.33</v>
@@ -5088,10 +5088,10 @@
         <v>2.63</v>
       </c>
       <c r="R39" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S39" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T39" t="n">
         <v>5</v>
@@ -5186,10 +5186,10 @@
         <v>2.63</v>
       </c>
       <c r="J40" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>1.44</v>
@@ -5299,19 +5299,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
@@ -5332,16 +5332,16 @@
         <v>2.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T41" t="n">
         <v>6</v>
       </c>
       <c r="U41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V41" t="n">
         <v>8.5</v>
@@ -5368,10 +5368,10 @@
         <v>67</v>
       </c>
       <c r="AD41" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF41" t="n">
         <v>29</v>
@@ -5901,13 +5901,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -5915,7 +5915,7 @@
         <v>1.25</v>
       </c>
       <c r="M46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N46" t="n">
         <v>1.75</v>
@@ -5932,31 +5932,31 @@
         <v>2.07</v>
       </c>
       <c r="T46" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U46" t="n">
         <v>11.5</v>
       </c>
       <c r="V46" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X46" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y46" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z46" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA46" t="n">
         <v>6.4</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC46" t="n">
         <v>50</v>
@@ -5965,22 +5965,22 @@
         <v>350</v>
       </c>
       <c r="AE46" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -6381,13 +6381,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J50" t="n">
         <v>1.02</v>
@@ -6396,10 +6396,10 @@
         <v>19</v>
       </c>
       <c r="L50" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N50" t="n">
         <v>1.44</v>
@@ -6435,13 +6435,13 @@
         <v>15</v>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z50" t="n">
         <v>21</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB50" t="n">
         <v>10</v>
@@ -6450,16 +6450,16 @@
         <v>26</v>
       </c>
       <c r="AD50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="n">
         <v>21</v>
       </c>
       <c r="AG50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH50" t="n">
         <v>34</v>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>3.8</v>
@@ -6634,13 +6634,13 @@
         <v>1.9</v>
       </c>
       <c r="J52" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K52" t="n">
         <v>19</v>
       </c>
       <c r="L52" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M52" t="n">
         <v>5.5</v>
@@ -6756,13 +6756,13 @@
         <v>2.05</v>
       </c>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K53" t="n">
         <v>15</v>
       </c>
       <c r="L53" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M53" t="n">
         <v>4.33</v>
@@ -6878,13 +6878,13 @@
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K54" t="n">
         <v>13</v>
       </c>
       <c r="L54" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M54" t="n">
         <v>3.75</v>
@@ -7000,13 +7000,13 @@
         <v>2.25</v>
       </c>
       <c r="J55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K55" t="n">
         <v>17</v>
       </c>
       <c r="L55" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M55" t="n">
         <v>4.5</v>
@@ -7030,7 +7030,7 @@
         <v>2.38</v>
       </c>
       <c r="T55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U55" t="n">
         <v>15</v>
@@ -7113,31 +7113,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K56" t="n">
         <v>13</v>
       </c>
       <c r="L56" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O56" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P56" t="n">
         <v>1.33</v>
@@ -7170,7 +7170,7 @@
         <v>34</v>
       </c>
       <c r="Z56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA56" t="n">
         <v>7</v>
@@ -7188,13 +7188,13 @@
         <v>8.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG56" t="n">
         <v>8.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI56" t="n">
         <v>15</v>
@@ -7244,13 +7244,13 @@
         <v>2.3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K57" t="n">
         <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -7601,90 +7601,90 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="H60" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M60" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N60" t="n">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="O60" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P60" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="R60" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="S60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T60" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="U60" t="n">
-        <v>7.4</v>
+        <v>9.25</v>
       </c>
       <c r="V60" t="n">
-        <v>7.4</v>
+        <v>9.25</v>
       </c>
       <c r="W60" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X60" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z60" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="AA60" t="n">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB60" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD60" t="n">
         <v>101</v>
       </c>
       <c r="AE60" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG60" t="n">
-        <v>9.4</v>
+        <v>11.75</v>
       </c>
       <c r="AH60" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI60" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ60" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
@@ -7784,7 +7784,7 @@
         <v>1.33</v>
       </c>
       <c r="H62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
         <v>8.5</v>
@@ -7793,19 +7793,19 @@
         <v>1.02</v>
       </c>
       <c r="K62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L62" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N62" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O62" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P62" t="n">
         <v>1.22</v>
@@ -7814,10 +7814,10 @@
         <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -7832,7 +7832,7 @@
         <v>9.5</v>
       </c>
       <c r="X62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y62" t="n">
         <v>21</v>
@@ -7850,10 +7850,10 @@
         <v>41</v>
       </c>
       <c r="AD62" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF62" t="n">
         <v>41</v>
@@ -7862,7 +7862,7 @@
         <v>23</v>
       </c>
       <c r="AH62" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI62" t="n">
         <v>51</v>
@@ -7924,7 +7924,7 @@
         <v>5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O63" t="n">
         <v>2.3</v>
@@ -8046,7 +8046,7 @@
         <v>4</v>
       </c>
       <c r="N64" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O64" t="n">
         <v>2</v>
@@ -8415,7 +8415,7 @@
         <v>2.15</v>
       </c>
       <c r="O67" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P67" t="n">
         <v>1.44</v>
@@ -8513,13 +8513,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H68" t="n">
         <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8528,16 +8528,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M68" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N68" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O68" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8561,7 +8561,7 @@
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X68" t="n">
         <v>15</v>
@@ -8582,10 +8582,10 @@
         <v>51</v>
       </c>
       <c r="AD68" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF68" t="n">
         <v>21</v>
@@ -8597,10 +8597,10 @@
         <v>41</v>
       </c>
       <c r="AI68" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="69">
@@ -8879,31 +8879,31 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
         <v>1.07</v>
       </c>
       <c r="K71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N71" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O71" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P71" t="n">
         <v>1.44</v>
@@ -8921,7 +8921,7 @@
         <v>7.5</v>
       </c>
       <c r="U71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V71" t="n">
         <v>10</v>
@@ -8936,7 +8936,7 @@
         <v>34</v>
       </c>
       <c r="Z71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA71" t="n">
         <v>6</v>
@@ -8948,19 +8948,19 @@
         <v>51</v>
       </c>
       <c r="AD71" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI71" t="n">
         <v>26</v>
@@ -9123,13 +9123,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H73" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="I73" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -9148,28 +9148,28 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S73" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T73" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U73" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="V73" t="n">
         <v>8.25</v>
       </c>
       <c r="W73" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X73" t="n">
         <v>11.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z73" t="n">
         <v>11.5</v>
@@ -9178,31 +9178,31 @@
         <v>8.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC73" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD73" t="n">
         <v>800</v>
       </c>
       <c r="AE73" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF73" t="n">
         <v>45</v>
       </c>
       <c r="AG73" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH73" t="n">
         <v>175</v>
       </c>
       <c r="AI73" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="74">
@@ -9237,13 +9237,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H74" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9274,16 +9274,16 @@
         <v>15</v>
       </c>
       <c r="V74" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W74" t="n">
         <v>30</v>
       </c>
       <c r="X74" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z74" t="n">
         <v>12</v>
@@ -9307,16 +9307,16 @@
         <v>13.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH74" t="n">
         <v>27</v>
       </c>
       <c r="AI74" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ74" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
@@ -9481,25 +9481,25 @@
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="L76" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M76" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N76" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O76" t="n">
         <v>1.8</v>
       </c>
       <c r="P76" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="R76" t="n">
         <v>2.05</v>
@@ -9514,7 +9514,7 @@
         <v>6.5</v>
       </c>
       <c r="V76" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W76" t="n">
         <v>10</v>
@@ -9526,7 +9526,7 @@
         <v>32</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA76" t="n">
         <v>7.8</v>
@@ -9541,7 +9541,7 @@
         <v>900</v>
       </c>
       <c r="AE76" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF76" t="n">
         <v>32</v>
@@ -9591,94 +9591,94 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K77" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="L77" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P77" t="n">
         <v>1.4</v>
       </c>
-      <c r="M77" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Q77" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="R77" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="S77" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="T77" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="U77" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="V77" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W77" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X77" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y77" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AA77" t="n">
         <v>6.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF77" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG77" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH77" t="n">
         <v>70</v>
       </c>
       <c r="AI77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ77" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78">
@@ -9847,34 +9847,34 @@
         <v>1.08</v>
       </c>
       <c r="K79" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L79" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M79" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N79" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="O79" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P79" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R79" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S79" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T79" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U79" t="n">
         <v>14.5</v>
@@ -9892,37 +9892,37 @@
         <v>37</v>
       </c>
       <c r="Z79" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA79" t="n">
         <v>5.9</v>
       </c>
       <c r="AB79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD79" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE79" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AF79" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG79" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH79" t="n">
         <v>25</v>
       </c>
       <c r="AI79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ79" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
@@ -9972,16 +9972,16 @@
         <v>7</v>
       </c>
       <c r="L80" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O80" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P80" t="n">
         <v>1.39</v>
@@ -9990,13 +9990,13 @@
         <v>2.8</v>
       </c>
       <c r="R80" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S80" t="n">
         <v>1.85</v>
       </c>
       <c r="T80" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U80" t="n">
         <v>8.75</v>
@@ -10035,7 +10035,7 @@
         <v>19</v>
       </c>
       <c r="AG80" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH80" t="n">
         <v>55</v>
@@ -10088,16 +10088,16 @@
         <v>12</v>
       </c>
       <c r="J81" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L81" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M81" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N81" t="n">
         <v>1.7</v>
@@ -10567,13 +10567,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>3.3</v>
       </c>
       <c r="I85" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
         <v>1.06</v>
@@ -10594,10 +10594,10 @@
         <v>1.75</v>
       </c>
       <c r="P85" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R85" t="n">
         <v>1.83</v>
@@ -10609,7 +10609,7 @@
         <v>7.5</v>
       </c>
       <c r="U85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V85" t="n">
         <v>9.5</v>
@@ -10636,7 +10636,7 @@
         <v>51</v>
       </c>
       <c r="AD85" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE85" t="n">
         <v>9</v>
@@ -10645,7 +10645,7 @@
         <v>15</v>
       </c>
       <c r="AG85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH85" t="n">
         <v>34</v>
@@ -10689,19 +10689,19 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H86" t="n">
         <v>2.8</v>
       </c>
       <c r="I86" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J86" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K86" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.44</v>
@@ -10710,16 +10710,16 @@
         <v>2.63</v>
       </c>
       <c r="N86" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P86" t="n">
         <v>1.53</v>
       </c>
-      <c r="P86" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q86" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R86" t="n">
         <v>2</v>
@@ -10743,7 +10743,7 @@
         <v>21</v>
       </c>
       <c r="Y86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z86" t="n">
         <v>6.5</v>
@@ -10752,19 +10752,19 @@
         <v>5.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC86" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD86" t="n">
         <v>301</v>
       </c>
       <c r="AE86" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG86" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ86"/>
+  <dimension ref="A1:AJ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,16 +796,16 @@
         <v>2.1</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -930,19 +930,19 @@
         <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
         <v>11</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -954,7 +954,7 @@
         <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1022,16 +1022,16 @@
         <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N5" t="n">
         <v>2.7</v>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1999,7 +1999,7 @@
         <v>1.22</v>
       </c>
       <c r="M13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N13" t="n">
         <v>1.65</v>
@@ -2010,61 +2010,61 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="T13" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="U13" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="V13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W13" t="n">
         <v>5.3</v>
       </c>
-      <c r="V13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.6</v>
-      </c>
       <c r="X13" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="n">
         <v>10.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AB13" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AC13" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AD13" t="n">
         <v>101</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AG13" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AI13" t="n">
         <v>700</v>
       </c>
-      <c r="AI13" t="n">
-        <v>300</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -2099,70 +2099,70 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.5</v>
+        <v>4.65</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="N14" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.53</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="U14" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="V14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
         <v>150</v>
@@ -2171,22 +2171,22 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2616,7 +2616,7 @@
         <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
         <v>1.86</v>
@@ -3541,7 +3541,7 @@
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3570,25 +3570,25 @@
         <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U26" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V26" t="n">
         <v>8.25</v>
       </c>
       <c r="W26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X26" t="n">
         <v>14.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
         <v>6.8</v>
@@ -3603,7 +3603,7 @@
         <v>600</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF26" t="n">
         <v>22</v>
@@ -3615,7 +3615,7 @@
         <v>60</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="n">
         <v>45</v>
@@ -3662,22 +3662,22 @@
         <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
         <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O27" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P27" t="n">
         <v>1.36</v>
@@ -3784,13 +3784,13 @@
         <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
         <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
         <v>2.5</v>
@@ -3906,13 +3906,13 @@
         <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
@@ -4028,22 +4028,22 @@
         <v>2.2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
         <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H31" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="I31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.17</v>
@@ -4174,7 +4174,7 @@
         <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="n">
         <v>1.65</v>
@@ -4183,10 +4183,10 @@
         <v>6.2</v>
       </c>
       <c r="U31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W31" t="n">
         <v>40</v>
@@ -4204,28 +4204,28 @@
         <v>5</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD31" t="n">
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF31" t="n">
         <v>14.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH31" t="n">
         <v>45</v>
       </c>
       <c r="AI31" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ31" t="n">
         <v>55</v>
@@ -4629,13 +4629,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H35" t="n">
         <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -4668,10 +4668,10 @@
         <v>2.1</v>
       </c>
       <c r="T35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U35" t="n">
         <v>9</v>
-      </c>
-      <c r="U35" t="n">
-        <v>8.5</v>
       </c>
       <c r="V35" t="n">
         <v>8.5</v>
@@ -4716,7 +4716,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -4937,13 +4937,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -4954,16 +4954,16 @@
         <v>2.95</v>
       </c>
       <c r="N38" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P38" t="n">
         <v>1.38</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R38" t="n">
         <v>1.85</v>
@@ -4972,31 +4972,31 @@
         <v>1.85</v>
       </c>
       <c r="T38" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U38" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V38" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z38" t="n">
         <v>8</v>
       </c>
       <c r="AA38" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB38" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC38" t="n">
         <v>50</v>
@@ -5005,22 +5005,22 @@
         <v>350</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG38" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI38" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -5058,28 +5058,28 @@
         <v>1.33</v>
       </c>
       <c r="H39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P39" t="n">
         <v>1.44</v>
@@ -5088,19 +5088,19 @@
         <v>2.63</v>
       </c>
       <c r="R39" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="S39" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="T39" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W39" t="n">
         <v>8</v>
@@ -5118,31 +5118,31 @@
         <v>9</v>
       </c>
       <c r="AB39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD39" t="n">
         <v>101</v>
       </c>
       <c r="AE39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -5305,7 +5305,7 @@
         <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J41" t="n">
         <v>1.07</v>
@@ -5359,7 +5359,7 @@
         <v>9</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="n">
         <v>19</v>
@@ -5383,7 +5383,7 @@
         <v>67</v>
       </c>
       <c r="AI41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="n">
         <v>51</v>
@@ -5392,7 +5392,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>tb6KiSAC</t>
+          <t>MuUgRGyK</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5402,119 +5402,119 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>GREECE - SUPER LEAGUE 2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vestmannaeyjar</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="K42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U42" t="n">
         <v>10</v>
       </c>
-      <c r="L42" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="T42" t="n">
-        <v>13</v>
-      </c>
-      <c r="U42" t="n">
-        <v>12.5</v>
-      </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="W42" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Z42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG42" t="n">
         <v>9.25</v>
       </c>
-      <c r="AB42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>12</v>
-      </c>
       <c r="AH42" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ42" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>lO9Sk6uP</t>
+          <t>tb6KiSAC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5534,109 +5534,109 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Afturelding</t>
+          <t>Vestmannaeyjar</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3.8</v>
       </c>
-      <c r="J43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="R43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T43" t="n">
+        <v>13</v>
+      </c>
+      <c r="U43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V43" t="n">
         <v>9</v>
       </c>
-      <c r="L43" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U43" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V43" t="n">
-        <v>8.25</v>
-      </c>
       <c r="W43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X43" t="n">
         <v>12.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA43" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AB43" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC43" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AD43" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AE43" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AF43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>23</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>f5MzfIit</t>
+          <t>lO9Sk6uP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5656,109 +5656,109 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Afturelding</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.65</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
         <v>1.03</v>
       </c>
       <c r="K44" t="n">
+        <v>9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T44" t="n">
         <v>9.5</v>
       </c>
-      <c r="L44" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T44" t="n">
-        <v>13.5</v>
-      </c>
       <c r="U44" t="n">
-        <v>16</v>
+        <v>9.75</v>
       </c>
       <c r="V44" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="W44" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="X44" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA44" t="n">
         <v>8</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.75</v>
+        <v>13.5</v>
       </c>
       <c r="AC44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI44" t="n">
         <v>30</v>
       </c>
-      <c r="AD44" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH44" t="n">
+      <c r="AJ44" t="n">
         <v>32</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>zTNtLby9</t>
+          <t>f5MzfIit</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5768,111 +5768,119 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Persebaya</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>2.65</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9.5</v>
+      </c>
       <c r="L45" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="M45" t="n">
-        <v>3.25</v>
+        <v>4.85</v>
       </c>
       <c r="N45" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="O45" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R45" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="S45" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="T45" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="U45" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="V45" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W45" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X45" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y45" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z45" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AC45" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AD45" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="AE45" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AF45" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH45" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI45" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8tMlJx6L</t>
+          <t>zTNtLby9</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5882,7 +5890,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5892,22 +5900,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -5915,78 +5923,78 @@
         <v>1.25</v>
       </c>
       <c r="M46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N46" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O46" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="T46" t="n">
         <v>8.75</v>
       </c>
       <c r="U46" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W46" t="n">
         <v>21</v>
       </c>
       <c r="X46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI46" t="n">
         <v>23</v>
       </c>
-      <c r="Z46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6gBGfP3s</t>
+          <t>8tMlJx6L</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5996,119 +6004,111 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="H47" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I47" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K47" t="n">
-        <v>17</v>
-      </c>
+        <v>3.65</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="M47" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="O47" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3.75</v>
-      </c>
+        <v>1.88</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="S47" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="T47" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U47" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V47" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W47" t="n">
+        <v>18</v>
+      </c>
+      <c r="X47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG47" t="n">
         <v>12</v>
       </c>
-      <c r="U47" t="n">
-        <v>15</v>
-      </c>
-      <c r="V47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W47" t="n">
-        <v>23</v>
-      </c>
-      <c r="X47" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>11</v>
-      </c>
       <c r="AH47" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AI47" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AJ47" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>82svNQvm</t>
+          <t>6gBGfP3s</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6118,32 +6118,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J48" t="n">
         <v>1.03</v>
@@ -6176,16 +6176,16 @@
         <v>2.63</v>
       </c>
       <c r="T48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U48" t="n">
         <v>15</v>
       </c>
       <c r="V48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X48" t="n">
         <v>17</v>
@@ -6206,31 +6206,31 @@
         <v>29</v>
       </c>
       <c r="AD48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
         <v>17</v>
       </c>
       <c r="AG48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI48" t="n">
         <v>19</v>
       </c>
       <c r="AJ48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4UzmL49a</t>
+          <t>82svNQvm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6250,22 +6250,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J49" t="n">
         <v>1.02</v>
@@ -6301,7 +6301,7 @@
         <v>13</v>
       </c>
       <c r="U49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V49" t="n">
         <v>10</v>
@@ -6322,7 +6322,7 @@
         <v>7.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC49" t="n">
         <v>29</v>
@@ -6331,19 +6331,19 @@
         <v>81</v>
       </c>
       <c r="AE49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF49" t="n">
         <v>17</v>
       </c>
       <c r="AG49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ49" t="n">
         <v>21</v>
@@ -6352,7 +6352,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Y9S3HM8O</t>
+          <t>4UzmL49a</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6372,22 +6372,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="J50" t="n">
         <v>1.02</v>
@@ -6396,28 +6396,28 @@
         <v>19</v>
       </c>
       <c r="L50" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M50" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R50" t="n">
         <v>1.44</v>
       </c>
-      <c r="O50" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T50" t="n">
         <v>13</v>
@@ -6426,55 +6426,55 @@
         <v>15</v>
       </c>
       <c r="V50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W50" t="n">
+        <v>26</v>
+      </c>
+      <c r="X50" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y50" t="n">
         <v>21</v>
       </c>
-      <c r="X50" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>17</v>
-      </c>
       <c r="Z50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB50" t="n">
         <v>10</v>
       </c>
       <c r="AC50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI50" t="n">
         <v>19</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AJ50" t="n">
         <v>21</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CfveJrvC</t>
+          <t>Y9S3HM8O</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6494,22 +6494,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="H51" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>1.57</v>
+        <v>3.2</v>
       </c>
       <c r="J51" t="n">
         <v>1.02</v>
@@ -6536,67 +6536,67 @@
         <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S51" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T51" t="n">
+        <v>13</v>
+      </c>
+      <c r="U51" t="n">
+        <v>15</v>
+      </c>
+      <c r="V51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W51" t="n">
         <v>21</v>
       </c>
-      <c r="U51" t="n">
-        <v>29</v>
-      </c>
-      <c r="V51" t="n">
-        <v>17</v>
-      </c>
-      <c r="W51" t="n">
-        <v>51</v>
-      </c>
       <c r="X51" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="Y51" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="n">
         <v>21</v>
       </c>
       <c r="AA51" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC51" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH51" t="n">
         <v>34</v>
       </c>
-      <c r="AD51" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>13</v>
-      </c>
       <c r="AI51" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AJ51" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>dORNKzbJ</t>
+          <t>CfveJrvC</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6616,46 +6616,46 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I52" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="J52" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L52" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M52" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O52" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
         <v>1.5</v>
@@ -6664,31 +6664,31 @@
         <v>2.5</v>
       </c>
       <c r="T52" t="n">
+        <v>21</v>
+      </c>
+      <c r="U52" t="n">
+        <v>34</v>
+      </c>
+      <c r="V52" t="n">
         <v>17</v>
       </c>
-      <c r="U52" t="n">
-        <v>23</v>
-      </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
+        <v>51</v>
+      </c>
+      <c r="X52" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB52" t="n">
         <v>13</v>
-      </c>
-      <c r="W52" t="n">
-        <v>41</v>
-      </c>
-      <c r="X52" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>12</v>
       </c>
       <c r="AC52" t="n">
         <v>34</v>
@@ -6700,16 +6700,16 @@
         <v>11</v>
       </c>
       <c r="AF52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI52" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ52" t="n">
         <v>19</v>
@@ -6718,7 +6718,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>fgIfMQWO</t>
+          <t>dORNKzbJ</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6728,119 +6728,119 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J53" t="n">
         <v>1.02</v>
       </c>
       <c r="K53" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L53" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M53" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="N53" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O53" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P53" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R53" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S53" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T53" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U53" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="V53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y53" t="n">
         <v>26</v>
       </c>
       <c r="Z53" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="n">
         <v>8</v>
       </c>
       <c r="AB53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD53" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE53" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
         <v>9</v>
       </c>
       <c r="AH53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>19</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>pdAcpwJE</t>
+          <t>fgIfMQWO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6860,109 +6860,109 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J54" t="n">
         <v>1.03</v>
       </c>
       <c r="K54" t="n">
+        <v>15</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T54" t="n">
+        <v>12</v>
+      </c>
+      <c r="U54" t="n">
+        <v>17</v>
+      </c>
+      <c r="V54" t="n">
+        <v>11</v>
+      </c>
+      <c r="W54" t="n">
+        <v>34</v>
+      </c>
+      <c r="X54" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB54" t="n">
         <v>13</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M54" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T54" t="n">
-        <v>11</v>
-      </c>
-      <c r="U54" t="n">
-        <v>19</v>
-      </c>
-      <c r="V54" t="n">
-        <v>12</v>
-      </c>
-      <c r="W54" t="n">
-        <v>41</v>
-      </c>
-      <c r="X54" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>15</v>
       </c>
       <c r="AC54" t="n">
         <v>41</v>
       </c>
       <c r="AD54" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE54" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG54" t="n">
         <v>9</v>
       </c>
       <c r="AH54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI54" t="n">
         <v>15</v>
       </c>
       <c r="AJ54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>vcSVRU2m</t>
+          <t>pdAcpwJE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6982,109 +6982,109 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K55" t="n">
+        <v>13</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M55" t="n">
         <v>4</v>
       </c>
-      <c r="I55" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K55" t="n">
-        <v>17</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4.5</v>
-      </c>
       <c r="N55" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O55" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P55" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R55" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="S55" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="T55" t="n">
         <v>11</v>
       </c>
       <c r="U55" t="n">
+        <v>19</v>
+      </c>
+      <c r="V55" t="n">
+        <v>12</v>
+      </c>
+      <c r="W55" t="n">
+        <v>41</v>
+      </c>
+      <c r="X55" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB55" t="n">
         <v>15</v>
-      </c>
-      <c r="V55" t="n">
-        <v>10</v>
-      </c>
-      <c r="W55" t="n">
-        <v>29</v>
-      </c>
-      <c r="X55" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>13</v>
       </c>
       <c r="AC55" t="n">
         <v>41</v>
       </c>
       <c r="AD55" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AE55" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>23</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>nNVwQ8Xa</t>
+          <t>vcSVRU2m</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7104,76 +7104,76 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H56" t="n">
         <v>4</v>
       </c>
-      <c r="H56" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I56" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
       </c>
       <c r="K56" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L56" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N56" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="O56" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="P56" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R56" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S56" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U56" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V56" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W56" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="X56" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Z56" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB56" t="n">
         <v>13</v>
@@ -7182,31 +7182,31 @@
         <v>41</v>
       </c>
       <c r="AD56" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE56" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AF56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG56" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG56" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH56" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8xKnOn2C</t>
+          <t>nNVwQ8Xa</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -7226,31 +7226,31 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="J57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K57" t="n">
         <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -7268,28 +7268,28 @@
         <v>3.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U57" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="V57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W57" t="n">
+        <v>41</v>
+      </c>
+      <c r="X57" t="n">
         <v>29</v>
       </c>
-      <c r="X57" t="n">
-        <v>21</v>
-      </c>
       <c r="Y57" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z57" t="n">
         <v>13</v>
@@ -7307,19 +7307,19 @@
         <v>151</v>
       </c>
       <c r="AE57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF57" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF57" t="n">
-        <v>13</v>
-      </c>
       <c r="AG57" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ57" t="n">
         <v>23</v>
@@ -7328,7 +7328,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>lxkvHrpm</t>
+          <t>8xKnOn2C</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -7338,119 +7338,119 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M58" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="P58" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S58" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="T58" t="n">
         <v>11</v>
       </c>
       <c r="U58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V58" t="n">
+        <v>11</v>
+      </c>
+      <c r="W58" t="n">
+        <v>29</v>
+      </c>
+      <c r="X58" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z58" t="n">
         <v>13</v>
       </c>
-      <c r="W58" t="n">
+      <c r="AA58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC58" t="n">
         <v>41</v>
       </c>
-      <c r="X58" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z58" t="n">
+      <c r="AD58" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE58" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>7</v>
-      </c>
       <c r="AF58" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI58" t="n">
         <v>17</v>
       </c>
       <c r="AJ58" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>d2hnFMEa</t>
+          <t>lxkvHrpm</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -7470,28 +7470,28 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J59" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
         <v>1.3</v>
@@ -7500,10 +7500,10 @@
         <v>3.4</v>
       </c>
       <c r="N59" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P59" t="n">
         <v>1.4</v>
@@ -7518,52 +7518,52 @@
         <v>1.83</v>
       </c>
       <c r="T59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U59" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y59" t="n">
         <v>41</v>
       </c>
       <c r="Z59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
         <v>51</v>
       </c>
       <c r="AD59" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE59" t="n">
         <v>7</v>
       </c>
       <c r="AF59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH59" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ59" t="n">
         <v>29</v>
@@ -7572,7 +7572,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0OhxN1y8</t>
+          <t>d2hnFMEa</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7582,115 +7582,119 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Fernando de la Mora</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.15</v>
+        <v>4.33</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11</v>
+      </c>
       <c r="L60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P60" t="n">
         <v>1.4</v>
       </c>
-      <c r="M60" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q60" t="n">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
       <c r="R60" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T60" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="U60" t="n">
-        <v>9.25</v>
+        <v>23</v>
       </c>
       <c r="V60" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="W60" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="X60" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="Y60" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Z60" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC60" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AD60" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AE60" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AF60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI60" t="n">
         <v>15</v>
       </c>
-      <c r="AG60" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ60" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IaNMUDfE</t>
+          <t>0OhxN1y8</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7700,7 +7704,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7710,49 +7714,105 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sp. Carapegua</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Independiente FBC</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+          <t>Fernando de la Mora</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T61" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U61" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V61" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W61" t="n">
+        <v>20</v>
+      </c>
+      <c r="X61" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ED92B9AO</t>
+          <t>IaNMUDfE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7762,119 +7822,59 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>Sp. Carapegua</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Juan Pablo II</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K62" t="n">
-        <v>21</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O62" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>4</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S62" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T62" t="n">
-        <v>10</v>
-      </c>
-      <c r="U62" t="n">
-        <v>8</v>
-      </c>
-      <c r="V62" t="n">
-        <v>9</v>
-      </c>
-      <c r="W62" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X62" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>41</v>
-      </c>
+          <t>Independiente FBC</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>fopyQ8PH</t>
+          <t>ED92B9AO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7894,109 +7894,109 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Juan Pablo II</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="H63" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="J63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K63" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L63" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="O63" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="P63" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="S63" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="T63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U63" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V63" t="n">
         <v>9</v>
       </c>
       <c r="W63" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="X63" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
       </c>
       <c r="Z63" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA63" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AC63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD63" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH63" t="n">
         <v>101</v>
       </c>
-      <c r="AE63" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH63" t="n">
+      <c r="AI63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>41</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SbrqOnfU</t>
+          <t>fopyQ8PH</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8016,55 +8016,55 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J64" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L64" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N64" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P64" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R64" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S64" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U64" t="n">
         <v>11</v>
@@ -8073,43 +8073,43 @@
         <v>9</v>
       </c>
       <c r="W64" t="n">
+        <v>19</v>
+      </c>
+      <c r="X64" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y64" t="n">
         <v>21</v>
       </c>
-      <c r="X64" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>23</v>
-      </c>
       <c r="Z64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="n">
         <v>12</v>
       </c>
-      <c r="AA64" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB64" t="n">
+      <c r="AC64" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG64" t="n">
         <v>13</v>
       </c>
-      <c r="AC64" t="n">
+      <c r="AH64" t="n">
         <v>41</v>
       </c>
-      <c r="AD64" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>34</v>
-      </c>
       <c r="AI64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ64" t="n">
         <v>29</v>
@@ -8118,7 +8118,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KYnOMZTr</t>
+          <t>SbrqOnfU</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8128,83 +8128,83 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H65" t="n">
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K65" t="n">
+        <v>13</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>9</v>
+      </c>
+      <c r="U65" t="n">
         <v>11</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>3</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T65" t="n">
-        <v>8</v>
-      </c>
-      <c r="U65" t="n">
-        <v>10</v>
       </c>
       <c r="V65" t="n">
         <v>9</v>
       </c>
       <c r="W65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y65" t="n">
         <v>23</v>
       </c>
       <c r="Z65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA65" t="n">
         <v>6.5</v>
@@ -8216,31 +8216,31 @@
         <v>41</v>
       </c>
       <c r="AD65" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE65" t="n">
         <v>12</v>
       </c>
       <c r="AF65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH65" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>OKlwWNP1</t>
+          <t>KYnOMZTr</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8255,27 +8255,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="H66" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="J66" t="n">
         <v>1.05</v>
@@ -8284,16 +8284,16 @@
         <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M66" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O66" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P66" t="n">
         <v>1.36</v>
@@ -8302,67 +8302,67 @@
         <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S66" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U66" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="V66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W66" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z66" t="n">
         <v>11</v>
       </c>
       <c r="AA66" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD66" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG66" t="n">
         <v>13</v>
       </c>
-      <c r="AF66" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>15</v>
-      </c>
       <c r="AH66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>fs8t2oig</t>
+          <t>OKlwWNP1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -8372,110 +8372,110 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J67" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P67" t="n">
         <v>1.36</v>
       </c>
-      <c r="M67" t="n">
+      <c r="Q67" t="n">
         <v>3</v>
       </c>
-      <c r="N67" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>2.63</v>
-      </c>
       <c r="R67" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S67" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U67" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="V67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W67" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="X67" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB67" t="n">
         <v>17</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>15</v>
       </c>
       <c r="AC67" t="n">
         <v>51</v>
       </c>
       <c r="AD67" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE67" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF67" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AG67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH67" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI67" t="n">
         <v>41</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>34</v>
       </c>
       <c r="AJ67" t="n">
         <v>41</v>
@@ -8484,7 +8484,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>neZI2SS6</t>
+          <t>fs8t2oig</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8494,86 +8494,86 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I68" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K68" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L68" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M68" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N68" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="O68" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="P68" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S68" t="n">
         <v>1.8</v>
       </c>
-      <c r="S68" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T68" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U68" t="n">
         <v>9</v>
       </c>
       <c r="V68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W68" t="n">
+        <v>19</v>
+      </c>
+      <c r="X68" t="n">
         <v>17</v>
       </c>
-      <c r="X68" t="n">
-        <v>15</v>
-      </c>
       <c r="Y68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z68" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB68" t="n">
         <v>15</v>
@@ -8582,13 +8582,13 @@
         <v>51</v>
       </c>
       <c r="AD68" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG68" t="n">
         <v>13</v>
@@ -8597,16 +8597,16 @@
         <v>41</v>
       </c>
       <c r="AI68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>M5RkaEwC</t>
+          <t>neZI2SS6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8626,46 +8626,46 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="H69" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M69" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N69" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O69" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="P69" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
         <v>1.8</v>
@@ -8677,25 +8677,25 @@
         <v>7.5</v>
       </c>
       <c r="U69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V69" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W69" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X69" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB69" t="n">
         <v>15</v>
@@ -8707,16 +8707,16 @@
         <v>251</v>
       </c>
       <c r="AE69" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF69" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI69" t="n">
         <v>29</v>
@@ -8728,7 +8728,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>r9RzC1qJ</t>
+          <t>M5RkaEwC</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8738,119 +8738,119 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Umm-Salal</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Al Markhiya</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L70" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="M70" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="N70" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="O70" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P70" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.87</v>
+        <v>2.63</v>
       </c>
       <c r="R70" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="T70" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="U70" t="n">
         <v>10</v>
       </c>
       <c r="V70" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="W70" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X70" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB70" t="n">
         <v>15</v>
       </c>
-      <c r="Y70" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC70" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD70" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AE70" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG70" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH70" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AI70" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ70" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ljtQTcl4</t>
+          <t>r9RzC1qJ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8860,119 +8860,119 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Umm-Salal</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Al Markhiya</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J71" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L71" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="M71" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="N71" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="O71" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P71" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="R71" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S71" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="T71" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="U71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V71" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="W71" t="n">
+        <v>18</v>
+      </c>
+      <c r="X71" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y71" t="n">
         <v>23</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF71" t="n">
         <v>21</v>
       </c>
-      <c r="Y71" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>15</v>
-      </c>
       <c r="AG71" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH71" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ71" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6ineJNrn</t>
+          <t>ljtQTcl4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -8992,100 +8992,100 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="J72" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L72" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M72" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N72" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O72" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P72" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R72" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S72" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="T72" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U72" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="V72" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W72" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="X72" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Y72" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z72" t="n">
         <v>8</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB72" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD72" t="n">
-        <v>1250</v>
+        <v>301</v>
       </c>
       <c r="AE72" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AG72" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AI72" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ72" t="n">
         <v>34</v>
@@ -9094,7 +9094,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>KGL9C2Rh</t>
+          <t>6ineJNrn</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9104,111 +9104,119 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ohod</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.39</v>
+        <v>4.1</v>
       </c>
       <c r="H73" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K73" t="n">
+        <v>7.5</v>
+      </c>
       <c r="L73" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="M73" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N73" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O73" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+        <v>1.6</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R73" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T73" t="n">
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
       <c r="U73" t="n">
+        <v>21</v>
+      </c>
+      <c r="V73" t="n">
+        <v>15</v>
+      </c>
+      <c r="W73" t="n">
+        <v>51</v>
+      </c>
+      <c r="X73" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA73" t="n">
         <v>6.5</v>
       </c>
-      <c r="V73" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W73" t="n">
+      <c r="AB73" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG73" t="n">
         <v>9</v>
       </c>
-      <c r="X73" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>23</v>
-      </c>
       <c r="AH73" t="n">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="AI73" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AJ73" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GrFIAtd5</t>
+          <t>KGL9C2Rh</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9218,7 +9226,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -9228,22 +9236,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Ohod</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.62</v>
+        <v>1.35</v>
       </c>
       <c r="H74" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I74" t="n">
-        <v>2.42</v>
+        <v>7.9</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9262,67 +9270,67 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="S74" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="T74" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="U74" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="V74" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="W74" t="n">
-        <v>30</v>
+        <v>8.5</v>
       </c>
       <c r="X74" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE74" t="n">
         <v>20</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="AF74" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG74" t="n">
         <v>25</v>
       </c>
-      <c r="Z74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AH74" t="n">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="AI74" t="n">
-        <v>18.5</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ldDQ8KQH</t>
+          <t>GrFIAtd5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9332,7 +9340,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -9342,105 +9350,101 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Al-Faisaly</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>4.55</v>
+        <v>2.35</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M75" t="n">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="N75" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="O75" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P75" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.52</v>
-      </c>
+        <v>1.98</v>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="S75" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="T75" t="n">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="U75" t="n">
-        <v>7.5</v>
+        <v>15.5</v>
       </c>
       <c r="V75" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="W75" t="n">
+        <v>32</v>
+      </c>
+      <c r="X75" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z75" t="n">
         <v>12.5</v>
       </c>
-      <c r="X75" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AA75" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB75" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC75" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AD75" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="AE75" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AG75" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AH75" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="AI75" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="AJ75" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>44yQiB1m</t>
+          <t>ldDQ8KQH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -9450,119 +9454,115 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Al-Faisaly</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I76" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K76" t="n">
-        <v>7.3</v>
-      </c>
+        <v>4.55</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M76" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="N76" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O76" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P76" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="R76" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S76" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T76" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="U76" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="V76" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W76" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="X76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y76" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.3</v>
+        <v>9.75</v>
       </c>
       <c r="AA76" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AB76" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC76" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD76" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE76" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF76" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG76" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH76" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AJ76" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>YHEhAJHE</t>
+          <t>44yQiB1m</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -9582,109 +9582,109 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="I77" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="J77" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K77" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="L77" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O77" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P77" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="R77" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="S77" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="T77" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="U77" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="V77" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W77" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="X77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y77" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB77" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AC77" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AD77" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE77" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AG77" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AH77" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ77" t="n">
         <v>70</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KxX5nGP7</t>
+          <t>YHEhAJHE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -9704,109 +9704,109 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K78" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L78" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M78" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="P78" t="n">
         <v>1.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R78" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="S78" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T78" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="U78" t="n">
-        <v>10.25</v>
+        <v>8.25</v>
       </c>
       <c r="V78" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W78" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z78" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AD78" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="AE78" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF78" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AG78" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH78" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AI78" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AJ78" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>vTAQ1hUI</t>
+          <t>KxX5nGP7</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -9826,109 +9826,109 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K79" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T79" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U79" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V79" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W79" t="n">
+        <v>20</v>
+      </c>
+      <c r="X79" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA79" t="n">
         <v>6.4</v>
       </c>
-      <c r="L79" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M79" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N79" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T79" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="U79" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="V79" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W79" t="n">
-        <v>37</v>
-      </c>
-      <c r="X79" t="n">
+      <c r="AB79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="n">
         <v>27</v>
       </c>
-      <c r="Y79" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ79" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A1n5Lqkl</t>
+          <t>vTAQ1hUI</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -9938,56 +9938,56 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.91</v>
+        <v>2.92</v>
       </c>
       <c r="H80" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.7</v>
+        <v>2.35</v>
       </c>
       <c r="J80" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K80" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="L80" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M80" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="N80" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="O80" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P80" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="R80" t="n">
         <v>1.85</v>
@@ -9996,61 +9996,61 @@
         <v>1.85</v>
       </c>
       <c r="T80" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="U80" t="n">
-        <v>8.75</v>
+        <v>14.5</v>
       </c>
       <c r="V80" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="W80" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="X80" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y80" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Z80" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AB80" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD80" t="n">
         <v>700</v>
       </c>
       <c r="AE80" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AF80" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AG80" t="n">
-        <v>12.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH80" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AI80" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AJ80" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>UJWMszo4</t>
+          <t>A1n5Lqkl</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10060,119 +10060,119 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.27</v>
+        <v>1.91</v>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="I81" t="n">
-        <v>12</v>
+        <v>3.7</v>
       </c>
       <c r="J81" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K81" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L81" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M81" t="n">
-        <v>4.33</v>
+        <v>3.05</v>
       </c>
       <c r="N81" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="O81" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="P81" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="R81" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="S81" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="T81" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="U81" t="n">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="V81" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W81" t="n">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="X81" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Y81" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z81" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AA81" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE81" t="n">
         <v>10</v>
       </c>
-      <c r="AB81" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>26</v>
-      </c>
       <c r="AF81" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AG81" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="AI81" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="AJ81" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>zNAOSCMh</t>
+          <t>UJWMszo4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -10182,32 +10182,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.75</v>
+        <v>1.27</v>
       </c>
       <c r="H82" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="J82" t="n">
         <v>1.04</v>
@@ -10216,85 +10216,85 @@
         <v>13</v>
       </c>
       <c r="L82" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N82" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O82" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="S82" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="T82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U82" t="n">
+        <v>6</v>
+      </c>
+      <c r="V82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X82" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z82" t="n">
         <v>11</v>
       </c>
-      <c r="U82" t="n">
-        <v>15</v>
-      </c>
-      <c r="V82" t="n">
+      <c r="AA82" t="n">
         <v>10</v>
       </c>
-      <c r="W82" t="n">
-        <v>29</v>
-      </c>
-      <c r="X82" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y82" t="n">
+      <c r="AB82" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE82" t="n">
         <v>26</v>
       </c>
-      <c r="Z82" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD82" t="n">
+      <c r="AF82" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH82" t="n">
         <v>151</v>
       </c>
-      <c r="AE82" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>23</v>
-      </c>
       <c r="AI82" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="AJ82" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wl4XQji5</t>
+          <t>zNAOSCMh</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -10314,109 +10314,109 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="H83" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I83" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="J83" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K83" t="n">
+        <v>13</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T83" t="n">
+        <v>11</v>
+      </c>
+      <c r="U83" t="n">
+        <v>15</v>
+      </c>
+      <c r="V83" t="n">
         <v>10</v>
       </c>
-      <c r="L83" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M83" t="n">
-        <v>3</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P83" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R83" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T83" t="n">
+      <c r="W83" t="n">
+        <v>29</v>
+      </c>
+      <c r="X83" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA83" t="n">
         <v>7</v>
       </c>
-      <c r="U83" t="n">
+      <c r="AB83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE83" t="n">
         <v>9.5</v>
       </c>
-      <c r="V83" t="n">
-        <v>9</v>
-      </c>
-      <c r="W83" t="n">
-        <v>19</v>
-      </c>
-      <c r="X83" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB83" t="n">
+      <c r="AF83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI83" t="n">
         <v>17</v>
       </c>
-      <c r="AC83" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ83" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>UXoG8bl1</t>
+          <t>Wl4XQji5</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -10426,119 +10426,119 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K84" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="M84" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O84" t="n">
         <v>1.7</v>
       </c>
-      <c r="O84" t="n">
-        <v>2.1</v>
-      </c>
       <c r="P84" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R84" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="S84" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="T84" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U84" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="V84" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W84" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="X84" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y84" t="n">
         <v>29</v>
       </c>
-      <c r="Y84" t="n">
-        <v>34</v>
-      </c>
       <c r="Z84" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD84" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AE84" t="n">
         <v>9</v>
       </c>
       <c r="AF84" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AG84" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AH84" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AI84" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ84" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jcLcsPTO</t>
+          <t>UXoG8bl1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -10553,114 +10553,114 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="H85" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="J85" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K85" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L85" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M85" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="N85" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O85" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="P85" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R85" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S85" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="T85" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="U85" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V85" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="W85" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="X85" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Y85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z85" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC85" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD85" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AE85" t="n">
         <v>9</v>
       </c>
       <c r="AF85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI85" t="n">
         <v>15</v>
       </c>
-      <c r="AG85" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ85" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>pIi6vtZQ</t>
+          <t>jcLcsPTO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -10670,112 +10670,234 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="K86" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="L86" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M86" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="N86" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O86" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="P86" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R86" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S86" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T86" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W86" t="n">
         <v>21</v>
       </c>
       <c r="X86" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y86" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA86" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA86" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC86" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD86" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE86" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF86" t="n">
         <v>15</v>
       </c>
       <c r="AG86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>pIi6vtZQ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>10</v>
+      </c>
+      <c r="V87" t="n">
+        <v>10</v>
+      </c>
+      <c r="W87" t="n">
+        <v>21</v>
+      </c>
+      <c r="X87" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG87" t="n">
         <v>13</v>
       </c>
-      <c r="AH86" t="n">
+      <c r="AH87" t="n">
         <v>41</v>
       </c>
-      <c r="AI86" t="n">
+      <c r="AI87" t="n">
         <v>34</v>
       </c>
-      <c r="AJ86" t="n">
+      <c r="AJ87" t="n">
         <v>41</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
@@ -975,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1016,16 +1016,16 @@
         <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>1.57</v>
@@ -1040,16 +1040,16 @@
         <v>1.44</v>
       </c>
       <c r="P5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>5.5</v>
@@ -1070,10 +1070,10 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1085,13 +1085,13 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1272,16 +1272,16 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N7" t="n">
         <v>2.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1400,10 +1400,10 @@
         <v>2.63</v>
       </c>
       <c r="N8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
         <v>1.5</v>
@@ -1528,10 +1528,10 @@
         <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R9" t="n">
         <v>2.05</v>
@@ -1650,7 +1650,7 @@
         <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" t="n">
         <v>2.25</v>
@@ -1772,7 +1772,7 @@
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -2221,94 +2221,94 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M15" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="N15" t="n">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="S15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T15" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="U15" t="n">
         <v>9.75</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AA15" t="n">
         <v>6.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD15" t="n">
         <v>101</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>37</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -3421,27 +3421,27 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N25" t="n">
         <v>1.72</v>
       </c>
       <c r="O25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -3455,13 +3455,13 @@
         <v>7.9</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V25" t="n">
         <v>8.25</v>
       </c>
       <c r="W25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X25" t="n">
         <v>14</v>
@@ -3470,10 +3470,10 @@
         <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
         <v>14</v>
@@ -3485,19 +3485,19 @@
         <v>400</v>
       </c>
       <c r="AE25" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ25" t="n">
         <v>37</v>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
@@ -4516,10 +4516,10 @@
         <v>5.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -4540,10 +4540,10 @@
         <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T34" t="n">
         <v>7.5</v>
@@ -4555,10 +4555,10 @@
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
+        <v>11</v>
+      </c>
+      <c r="X34" t="n">
         <v>12</v>
-      </c>
-      <c r="X34" t="n">
-        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>23</v>
@@ -4579,7 +4579,7 @@
         <v>251</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -4588,7 +4588,7 @@
         <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
@@ -4629,13 +4629,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H35" t="n">
         <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -4668,10 +4668,10 @@
         <v>2.1</v>
       </c>
       <c r="T35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V35" t="n">
         <v>8.5</v>
@@ -4716,7 +4716,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -4761,31 +4761,77 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.6</v>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="T36" t="n">
+        <v>15</v>
+      </c>
+      <c r="U36" t="n">
+        <v>23</v>
+      </c>
+      <c r="V36" t="n">
+        <v>11</v>
+      </c>
+      <c r="W36" t="n">
+        <v>50</v>
+      </c>
+      <c r="X36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4819,13 +4865,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -4836,46 +4882,46 @@
         <v>2.85</v>
       </c>
       <c r="N37" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="O37" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P37" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R37" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="S37" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="T37" t="n">
         <v>4.85</v>
       </c>
       <c r="U37" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="V37" t="n">
         <v>7</v>
       </c>
       <c r="W37" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="X37" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB37" t="n">
         <v>15.5</v>
@@ -4887,16 +4933,16 @@
         <v>101</v>
       </c>
       <c r="AE37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG37" t="n">
         <v>14.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="n">
         <v>50</v>
@@ -4948,7 +4994,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="n">
         <v>2.95</v>
@@ -4969,7 +5015,7 @@
         <v>1.85</v>
       </c>
       <c r="S38" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -5421,13 +5467,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H42" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
         <v>1.12</v>
@@ -5436,10 +5482,10 @@
         <v>5.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M42" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="N42" t="n">
         <v>2.27</v>
@@ -5448,10 +5494,10 @@
         <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="R42" t="n">
         <v>1.97</v>
@@ -5460,55 +5506,55 @@
         <v>1.78</v>
       </c>
       <c r="T42" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="U42" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="V42" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="W42" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="AA42" t="n">
         <v>4.4</v>
       </c>
       <c r="AB42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AD42" t="n">
         <v>400</v>
       </c>
       <c r="AE42" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AF42" t="n">
         <v>13.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ42" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -6137,13 +6183,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
         <v>1.03</v>
@@ -6188,7 +6234,7 @@
         <v>23</v>
       </c>
       <c r="X48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y48" t="n">
         <v>21</v>
@@ -6212,7 +6258,7 @@
         <v>15</v>
       </c>
       <c r="AF48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="n">
         <v>11</v>
@@ -6221,7 +6267,7 @@
         <v>29</v>
       </c>
       <c r="AI48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ48" t="n">
         <v>23</v>
@@ -6268,10 +6314,10 @@
         <v>2.55</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L49" t="n">
         <v>1.14</v>
@@ -6503,13 +6549,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J51" t="n">
         <v>1.02</v>
@@ -6575,13 +6621,13 @@
         <v>67</v>
       </c>
       <c r="AE51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="n">
         <v>21</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH51" t="n">
         <v>34</v>
@@ -6991,10 +7037,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -7003,7 +7049,7 @@
         <v>1.04</v>
       </c>
       <c r="K55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L55" t="n">
         <v>1.22</v>
@@ -7030,13 +7076,13 @@
         <v>2.1</v>
       </c>
       <c r="T55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U55" t="n">
         <v>19</v>
       </c>
       <c r="V55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W55" t="n">
         <v>41</v>
@@ -7045,22 +7091,22 @@
         <v>26</v>
       </c>
       <c r="Y55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA55" t="n">
         <v>7</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC55" t="n">
         <v>41</v>
       </c>
       <c r="AD55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE55" t="n">
         <v>8.5</v>
@@ -7113,13 +7159,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
@@ -7152,7 +7198,7 @@
         <v>2.38</v>
       </c>
       <c r="T56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U56" t="n">
         <v>15</v>
@@ -7506,7 +7552,7 @@
         <v>1.8</v>
       </c>
       <c r="P59" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q59" t="n">
         <v>2.75</v>
@@ -7628,7 +7674,7 @@
         <v>1.83</v>
       </c>
       <c r="P60" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q60" t="n">
         <v>2.75</v>
@@ -7936,7 +7982,7 @@
         <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S63" t="n">
         <v>2.1</v>
@@ -8058,10 +8104,10 @@
         <v>3.4</v>
       </c>
       <c r="R64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S64" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -8180,7 +8226,7 @@
         <v>3.25</v>
       </c>
       <c r="R65" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S65" t="n">
         <v>2.2</v>
@@ -8302,7 +8348,7 @@
         <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S66" t="n">
         <v>2.05</v>
@@ -8424,10 +8470,10 @@
         <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S67" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -8882,10 +8928,10 @@
         <v>1.98</v>
       </c>
       <c r="H71" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J71" t="n">
         <v>1.05</v>
@@ -8906,10 +8952,10 @@
         <v>2</v>
       </c>
       <c r="P71" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="R71" t="n">
         <v>1.62</v>
@@ -8918,13 +8964,13 @@
         <v>2.15</v>
       </c>
       <c r="T71" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U71" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V71" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W71" t="n">
         <v>18</v>
@@ -8939,7 +8985,7 @@
         <v>8</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB71" t="n">
         <v>12.5</v>
@@ -8948,22 +8994,22 @@
         <v>50</v>
       </c>
       <c r="AD71" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF71" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG71" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI71" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ71" t="n">
         <v>30</v>
@@ -9016,16 +9062,16 @@
         <v>9</v>
       </c>
       <c r="L72" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M72" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P72" t="n">
         <v>1.44</v>
@@ -9132,10 +9178,10 @@
         <v>1.85</v>
       </c>
       <c r="J73" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K73" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L73" t="n">
         <v>1.4</v>
@@ -9144,10 +9190,10 @@
         <v>2.75</v>
       </c>
       <c r="N73" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O73" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P73" t="n">
         <v>1.5</v>
@@ -9473,18 +9519,18 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H76" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I76" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M76" t="n">
         <v>2.95</v>
@@ -9502,25 +9548,25 @@
         <v>2.52</v>
       </c>
       <c r="R76" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S76" t="n">
         <v>1.75</v>
       </c>
       <c r="T76" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U76" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="V76" t="n">
         <v>8.25</v>
       </c>
       <c r="W76" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X76" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y76" t="n">
         <v>29</v>
@@ -9529,16 +9575,16 @@
         <v>9.75</v>
       </c>
       <c r="AA76" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB76" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC76" t="n">
         <v>90</v>
       </c>
       <c r="AD76" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE76" t="n">
         <v>12</v>
@@ -9547,13 +9593,13 @@
         <v>26</v>
       </c>
       <c r="AG76" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH76" t="n">
         <v>80</v>
       </c>
       <c r="AI76" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ76" t="n">
         <v>55</v>
@@ -9713,19 +9759,19 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H78" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I78" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
         <v>1.07</v>
       </c>
       <c r="K78" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L78" t="n">
         <v>1.34</v>
@@ -9743,7 +9789,7 @@
         <v>1.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R78" t="n">
         <v>1.87</v>
@@ -9764,19 +9810,19 @@
         <v>15</v>
       </c>
       <c r="X78" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y78" t="n">
         <v>29</v>
       </c>
       <c r="Z78" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB78" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC78" t="n">
         <v>80</v>
@@ -9788,19 +9834,19 @@
         <v>11</v>
       </c>
       <c r="AF78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI78" t="n">
         <v>40</v>
       </c>
       <c r="AJ78" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -9835,19 +9881,19 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H79" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I79" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J79" t="n">
         <v>1.06</v>
       </c>
       <c r="K79" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.28</v>
@@ -9856,73 +9902,73 @@
         <v>3.35</v>
       </c>
       <c r="N79" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O79" t="n">
         <v>1.87</v>
       </c>
       <c r="P79" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R79" t="n">
         <v>1.7</v>
       </c>
       <c r="S79" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T79" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U79" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V79" t="n">
         <v>8.75</v>
       </c>
       <c r="W79" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X79" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF79" t="n">
         <v>17</v>
       </c>
-      <c r="Y79" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>18</v>
-      </c>
       <c r="AG79" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH79" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI79" t="n">
         <v>27</v>
       </c>
       <c r="AJ79" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
@@ -10454,13 +10500,13 @@
         <v>3.3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K84" t="n">
         <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
@@ -10472,16 +10518,16 @@
         <v>1.7</v>
       </c>
       <c r="P84" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R84" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S84" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -10576,13 +10622,13 @@
         <v>1.85</v>
       </c>
       <c r="J85" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K85" t="n">
         <v>13</v>
       </c>
       <c r="L85" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="M85" t="n">
         <v>4.33</v>
@@ -10594,13 +10640,13 @@
         <v>2.1</v>
       </c>
       <c r="P85" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q85" t="n">
         <v>3.4</v>
       </c>
       <c r="R85" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S85" t="n">
         <v>2.2</v>
@@ -10698,13 +10744,13 @@
         <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K86" t="n">
         <v>10</v>
       </c>
       <c r="L86" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M86" t="n">
         <v>3.25</v>
@@ -10716,16 +10762,16 @@
         <v>1.75</v>
       </c>
       <c r="P86" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q86" t="n">
         <v>2.75</v>
       </c>
       <c r="R86" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S86" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T86" t="n">
         <v>7.5</v>
@@ -10811,22 +10857,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>2.8</v>
       </c>
       <c r="I87" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J87" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L87" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M87" t="n">
         <v>2.5</v>
@@ -10838,22 +10884,22 @@
         <v>1.5</v>
       </c>
       <c r="P87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S87" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="T87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U87" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V87" t="n">
         <v>10</v>
@@ -10868,7 +10914,7 @@
         <v>41</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA87" t="n">
         <v>5.5</v>
@@ -10886,7 +10932,7 @@
         <v>8.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG87" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-28.xlsx
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
         <v>3.5</v>
@@ -1019,7 +1019,7 @@
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
         <v>1.13</v>
@@ -1028,10 +1028,10 @@
         <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N5" t="n">
         <v>2.7</v>
@@ -1040,10 +1040,10 @@
         <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
         <v>2.25</v>
@@ -1055,7 +1055,7 @@
         <v>5.5</v>
       </c>
       <c r="U5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>10</v>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1085,7 +1085,7 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1150,10 +1150,10 @@
         <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N6" t="n">
         <v>2.5</v>
@@ -1528,10 +1528,10 @@
         <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>2.05</v>
@@ -1650,7 +1650,7 @@
         <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
         <v>2.25</v>
@@ -1772,7 +1772,7 @@
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -2099,19 +2099,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
         <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.5</v>
@@ -2120,16 +2120,16 @@
         <v>2.42</v>
       </c>
       <c r="N14" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
         <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R14" t="n">
         <v>2.25</v>
@@ -2138,31 +2138,31 @@
         <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="U14" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="V14" t="n">
         <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
         <v>45</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>150</v>
@@ -2171,19 +2171,19 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
         <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
         <v>75</v>
@@ -3313,7 +3313,7 @@
         <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3324,21 +3324,21 @@
         <v>3.7</v>
       </c>
       <c r="N24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O24" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="S24" t="n">
         <v>1.42</v>
       </c>
       <c r="T24" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U24" t="n">
         <v>5.4</v>
@@ -3350,13 +3350,13 @@
         <v>5.8</v>
       </c>
       <c r="X24" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y24" t="n">
         <v>45</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA24" t="n">
         <v>15</v>
@@ -3371,22 +3371,22 @@
         <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AG24" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
@@ -4028,22 +4028,22 @@
         <v>2.2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J31" t="n">
         <v>1.17</v>
@@ -4189,7 +4189,7 @@
         <v>10.75</v>
       </c>
       <c r="W31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X31" t="n">
         <v>32</v>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H33" t="n">
         <v>2.45</v>
       </c>
       <c r="I33" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="J33" t="n">
         <v>1.17</v>
@@ -4418,19 +4418,19 @@
         <v>2.1</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T33" t="n">
         <v>6.9</v>
       </c>
       <c r="U33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W33" t="n">
         <v>55</v>
@@ -4460,13 +4460,13 @@
         <v>5.8</v>
       </c>
       <c r="AF33" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI33" t="n">
         <v>30</v>
@@ -4507,13 +4507,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4522,16 +4522,16 @@
         <v>12</v>
       </c>
       <c r="L34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4567,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
         <v>17</v>
@@ -4585,7 +4585,7 @@
         <v>29</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH34" t="n">
         <v>67</v>
@@ -5110,10 +5110,10 @@
         <v>10</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
         <v>1.36</v>
@@ -5134,19 +5134,19 @@
         <v>2.63</v>
       </c>
       <c r="R39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S39" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T39" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W39" t="n">
         <v>8</v>
@@ -5158,16 +5158,16 @@
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB39" t="n">
         <v>34</v>
       </c>
       <c r="AC39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AD39" t="n">
         <v>101</v>
@@ -5179,16 +5179,16 @@
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH39" t="n">
         <v>151</v>
       </c>
       <c r="AI39" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
@@ -5467,13 +5467,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H42" t="n">
         <v>2.42</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J42" t="n">
         <v>1.12</v>
@@ -5494,10 +5494,10 @@
         <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R42" t="n">
         <v>1.97</v>
@@ -5509,13 +5509,13 @@
         <v>5</v>
       </c>
       <c r="U42" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V42" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X42" t="n">
         <v>20</v>
@@ -5527,10 +5527,10 @@
         <v>5.1</v>
       </c>
       <c r="AA42" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC42" t="n">
         <v>70</v>
@@ -5539,10 +5539,10 @@
         <v>400</v>
       </c>
       <c r="AE42" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG42" t="n">
         <v>10</v>
@@ -5551,7 +5551,7 @@
         <v>40</v>
       </c>
       <c r="AI42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ42" t="n">
         <v>40</v>
@@ -5955,18 +5955,18 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H46" t="n">
         <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M46" t="n">
         <v>3.25</v>
@@ -5989,16 +5989,16 @@
         <v>8.75</v>
       </c>
       <c r="U46" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="V46" t="n">
         <v>9</v>
       </c>
       <c r="W46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y46" t="n">
         <v>25</v>
@@ -6019,22 +6019,22 @@
         <v>400</v>
       </c>
       <c r="AE46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG46" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH46" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -6080,27 +6080,27 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O47" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S47" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T47" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U47" t="n">
         <v>10.25</v>
@@ -6112,31 +6112,31 @@
         <v>18</v>
       </c>
       <c r="X47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y47" t="n">
         <v>22</v>
       </c>
       <c r="Z47" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
         <v>50</v>
       </c>
       <c r="AD47" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE47" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG47" t="n">
         <v>12</v>
@@ -6148,7 +6148,7 @@
         <v>32</v>
       </c>
       <c r="AJ47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -6198,10 +6198,10 @@
         <v>17</v>
       </c>
       <c r="L48" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
         <v>1.53</v>
@@ -7552,7 +7552,7 @@
         <v>1.8</v>
       </c>
       <c r="P59" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q59" t="n">
         <v>2.75</v>
@@ -7674,7 +7674,7 @@
         <v>1.83</v>
       </c>
       <c r="P60" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q60" t="n">
         <v>2.75</v>
@@ -7982,7 +7982,7 @@
         <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S63" t="n">
         <v>2.1</v>
@@ -8104,10 +8104,10 @@
         <v>3.4</v>
       </c>
       <c r="R64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S64" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -8199,13 +8199,13 @@
         <v>3.4</v>
       </c>
       <c r="I65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J65" t="n">
         <v>1.04</v>
       </c>
       <c r="K65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L65" t="n">
         <v>1.22</v>
@@ -8226,7 +8226,7 @@
         <v>3.25</v>
       </c>
       <c r="R65" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S65" t="n">
         <v>2.2</v>
@@ -8265,13 +8265,13 @@
         <v>151</v>
       </c>
       <c r="AE65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF65" t="n">
         <v>17</v>
       </c>
       <c r="AG65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH65" t="n">
         <v>34</v>
@@ -8348,7 +8348,7 @@
         <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S66" t="n">
         <v>2.05</v>
@@ -8470,10 +8470,10 @@
         <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S67" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -8696,16 +8696,16 @@
         <v>11</v>
       </c>
       <c r="L69" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M69" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N69" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P69" t="n">
         <v>1.36</v>
@@ -9519,90 +9519,90 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="H76" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I76" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M76" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="N76" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="O76" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P76" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="R76" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S76" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T76" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U76" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="V76" t="n">
         <v>8.25</v>
       </c>
       <c r="W76" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="X76" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z76" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA76" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="AB76" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD76" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE76" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF76" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AG76" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AI76" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ76" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77">
@@ -9762,16 +9762,16 @@
         <v>1.82</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J78" t="n">
         <v>1.07</v>
       </c>
       <c r="K78" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="L78" t="n">
         <v>1.34</v>
@@ -9789,7 +9789,7 @@
         <v>1.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R78" t="n">
         <v>1.87</v>
@@ -9798,7 +9798,7 @@
         <v>1.83</v>
       </c>
       <c r="T78" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="U78" t="n">
         <v>8.25</v>
@@ -9810,16 +9810,16 @@
         <v>15</v>
       </c>
       <c r="X78" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z78" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB78" t="n">
         <v>16</v>
@@ -9831,13 +9831,13 @@
         <v>700</v>
       </c>
       <c r="AE78" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF78" t="n">
         <v>22</v>
       </c>
       <c r="AG78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH78" t="n">
         <v>65</v>
@@ -9846,7 +9846,7 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79">
@@ -10003,10 +10003,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I80" t="n">
         <v>2.35</v>
@@ -10042,7 +10042,7 @@
         <v>1.85</v>
       </c>
       <c r="T80" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U80" t="n">
         <v>14.5</v>
@@ -10054,10 +10054,10 @@
         <v>37</v>
       </c>
       <c r="X80" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y80" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z80" t="n">
         <v>6.3</v>
@@ -10075,7 +10075,7 @@
         <v>700</v>
       </c>
       <c r="AE80" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AF80" t="n">
         <v>11</v>
@@ -10500,13 +10500,13 @@
         <v>3.3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K84" t="n">
         <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
@@ -10518,16 +10518,16 @@
         <v>1.7</v>
       </c>
       <c r="P84" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R84" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S84" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -10622,13 +10622,13 @@
         <v>1.85</v>
       </c>
       <c r="J85" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K85" t="n">
         <v>13</v>
       </c>
       <c r="L85" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M85" t="n">
         <v>4.33</v>
@@ -10640,13 +10640,13 @@
         <v>2.1</v>
       </c>
       <c r="P85" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q85" t="n">
         <v>3.4</v>
       </c>
       <c r="R85" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S85" t="n">
         <v>2.2</v>
@@ -10744,13 +10744,13 @@
         <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K86" t="n">
         <v>10</v>
       </c>
       <c r="L86" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M86" t="n">
         <v>3.25</v>
@@ -10762,16 +10762,16 @@
         <v>1.75</v>
       </c>
       <c r="P86" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q86" t="n">
         <v>2.75</v>
       </c>
       <c r="R86" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S86" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T86" t="n">
         <v>7.5</v>
@@ -10866,13 +10866,13 @@
         <v>3.6</v>
       </c>
       <c r="J87" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="K87" t="n">
         <v>6</v>
       </c>
       <c r="L87" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M87" t="n">
         <v>2.5</v>
@@ -10884,16 +10884,16 @@
         <v>1.5</v>
       </c>
       <c r="P87" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R87" t="n">
         <v>2.1</v>
       </c>
       <c r="S87" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T87" t="n">
         <v>6</v>
